--- a/A. JHB 30 JAN 26.xlsx
+++ b/A. JHB 30 JAN 26.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c5538153fc2a1641/Wages/Wages 2026/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neil\source\repos\NeilKetting\OCC.Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{33ADB199-55DB-4BF2-8DAA-4686D5FB3615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C9FB1E0-8399-4BEC-98A8-326F4EECF004}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{494FC418-A244-4315-B4C5-6D5205E48374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="OCC" sheetId="3" r:id="rId1"/>
+    <sheet name="A. JHB 30 JAN 26" sheetId="3" r:id="rId1"/>
     <sheet name="STUB" sheetId="9" r:id="rId2"/>
     <sheet name="KROONVAAL" sheetId="8" state="hidden" r:id="rId3"/>
   </sheets>
@@ -21,8 +21,8 @@
     <definedName name="monthNames" localSheetId="2">{"January";"February";"March";"April";"May";"June";"July";"August";"September";"October";"November";"December"}</definedName>
     <definedName name="monthNames" localSheetId="1">{"January";"February";"March";"April";"May";"June";"July";"August";"September";"October";"November";"December"}</definedName>
     <definedName name="monthNames">{"January";"February";"March";"April";"May";"June";"July";"August";"September";"October";"November";"December"}</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'A. JHB 30 JAN 26'!$A$1:$V$111</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">KROONVAAL!$A$1:$N$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">OCC!$A$1:$V$111</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">STUB!$A$1:$S$53</definedName>
     <definedName name="Project">#REF!</definedName>
     <definedName name="SiteList" localSheetId="2">#REF!</definedName>
@@ -551,8 +551,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;R&quot;#,##0;[Red]\-&quot;R&quot;#,##0"/>
+    <numFmt numFmtId="6" formatCode="&quot;R&quot;#,##0;[Red]\-&quot;R&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;R&quot;\ #,##0.00;&quot;R&quot;\ \-#,##0.00"/>
     <numFmt numFmtId="166" formatCode="&quot;R&quot;\ #,##0.00"/>
     <numFmt numFmtId="167" formatCode="[$R-1C09]#,##0.00"/>
@@ -960,10 +960,10 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="270">
+  <cellXfs count="269">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1043,7 +1043,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="57" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="57" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1071,7 +1071,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1083,7 +1083,7 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="57" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="57" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1100,7 +1100,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1118,7 +1118,7 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="2" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1130,7 +1130,7 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="57" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="57" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1162,21 +1162,21 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="14" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="57" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="57" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="14" xfId="57" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="57" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1198,32 +1198,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="14" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="58" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="58" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="58" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="14" xfId="58" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="58" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="58" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1268,7 +1268,7 @@
     <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="3" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1277,11 +1277,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="57" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="57" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="57" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="57" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1290,7 +1290,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1381,14 +1381,14 @@
     <xf numFmtId="166" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="2" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1424,36 +1424,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="11" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1461,170 +1431,47 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="2" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="11" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1640,6 +1487,198 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="11" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1649,44 +1688,17 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="11" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="3" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="7" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="2" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1696,21 +1708,6 @@
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -2065,67 +2062,67 @@
       <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="1.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="1.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="4" customWidth="1"/>
     <col min="9" max="10" width="10" style="4" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" style="68" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" style="68" customWidth="1"/>
     <col min="14" max="14" width="7" style="3" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="7.5546875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="14.88671875" style="4" customWidth="1"/>
     <col min="17" max="17" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" style="4" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="4" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.7109375" style="119" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="14.88671875" style="4" customWidth="1"/>
+    <col min="21" max="21" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.6640625" style="119" customWidth="1"/>
     <col min="23" max="23" width="13" style="61" customWidth="1"/>
-    <col min="24" max="26" width="10.5703125" style="61" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="65" customWidth="1"/>
-    <col min="28" max="28" width="10.5703125" style="61" customWidth="1"/>
-    <col min="29" max="29" width="31.85546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.85546875" style="5"/>
+    <col min="24" max="26" width="10.5546875" style="61" customWidth="1"/>
+    <col min="27" max="27" width="12.5546875" style="65" customWidth="1"/>
+    <col min="28" max="28" width="10.5546875" style="61" customWidth="1"/>
+    <col min="29" max="29" width="31.88671875" style="61" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:29" s="30" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="214" t="s">
+    <row r="1" spans="1:29" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:29" s="30" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="223" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="H2" s="224" t="s">
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="H2" s="232" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="M2" s="224"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="224"/>
-      <c r="P2" s="224"/>
-      <c r="Q2" s="224"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="232"/>
+      <c r="Q2" s="232"/>
       <c r="R2" s="31"/>
-      <c r="S2" s="225" t="s">
+      <c r="S2" s="233" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="210" t="s">
+      <c r="T2" s="234" t="s">
         <v>160</v>
       </c>
-      <c r="U2" s="210"/>
+      <c r="U2" s="234"/>
       <c r="V2" s="120"/>
       <c r="W2" s="30" t="s">
         <v>3</v>
@@ -2143,26 +2140,26 @@
       </c>
       <c r="AC2" s="62"/>
     </row>
-    <row r="3" spans="1:29" s="30" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="214"/>
-      <c r="B3" s="214"/>
-      <c r="C3" s="214"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="214"/>
-      <c r="H3" s="224"/>
-      <c r="I3" s="224"/>
-      <c r="J3" s="224"/>
-      <c r="K3" s="224"/>
-      <c r="L3" s="224"/>
-      <c r="M3" s="224"/>
-      <c r="N3" s="224"/>
-      <c r="O3" s="224"/>
-      <c r="P3" s="224"/>
-      <c r="Q3" s="224"/>
+    <row r="3" spans="1:29" s="30" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="223"/>
+      <c r="B3" s="223"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="223"/>
+      <c r="H3" s="232"/>
+      <c r="I3" s="232"/>
+      <c r="J3" s="232"/>
+      <c r="K3" s="232"/>
+      <c r="L3" s="232"/>
+      <c r="M3" s="232"/>
+      <c r="N3" s="232"/>
+      <c r="O3" s="232"/>
+      <c r="P3" s="232"/>
+      <c r="Q3" s="232"/>
       <c r="R3" s="31"/>
-      <c r="S3" s="225"/>
-      <c r="T3" s="210"/>
-      <c r="U3" s="210"/>
+      <c r="S3" s="233"/>
+      <c r="T3" s="234"/>
+      <c r="U3" s="234"/>
       <c r="V3" s="120"/>
       <c r="W3" s="30" t="s">
         <v>4</v>
@@ -2177,26 +2174,26 @@
       <c r="AB3" s="64"/>
       <c r="AC3" s="62"/>
     </row>
-    <row r="4" spans="1:29" s="30" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="214"/>
-      <c r="B4" s="214"/>
-      <c r="C4" s="214"/>
-      <c r="D4" s="214"/>
-      <c r="E4" s="214"/>
-      <c r="H4" s="224"/>
-      <c r="I4" s="224"/>
-      <c r="J4" s="224"/>
-      <c r="K4" s="224"/>
-      <c r="L4" s="224"/>
-      <c r="M4" s="224"/>
-      <c r="N4" s="224"/>
-      <c r="O4" s="224"/>
-      <c r="P4" s="224"/>
-      <c r="Q4" s="224"/>
+    <row r="4" spans="1:29" s="30" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="223"/>
+      <c r="B4" s="223"/>
+      <c r="C4" s="223"/>
+      <c r="D4" s="223"/>
+      <c r="E4" s="223"/>
+      <c r="H4" s="232"/>
+      <c r="I4" s="232"/>
+      <c r="J4" s="232"/>
+      <c r="K4" s="232"/>
+      <c r="L4" s="232"/>
+      <c r="M4" s="232"/>
+      <c r="N4" s="232"/>
+      <c r="O4" s="232"/>
+      <c r="P4" s="232"/>
+      <c r="Q4" s="232"/>
       <c r="R4" s="31"/>
-      <c r="S4" s="225"/>
-      <c r="T4" s="210"/>
-      <c r="U4" s="210"/>
+      <c r="S4" s="233"/>
+      <c r="T4" s="234"/>
+      <c r="U4" s="234"/>
       <c r="V4" s="120"/>
       <c r="W4" s="30" t="s">
         <v>5</v>
@@ -2209,26 +2206,26 @@
       <c r="AB4" s="64"/>
       <c r="AC4" s="62"/>
     </row>
-    <row r="5" spans="1:29" s="30" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="214"/>
-      <c r="B5" s="214"/>
-      <c r="C5" s="214"/>
-      <c r="D5" s="214"/>
-      <c r="E5" s="214"/>
-      <c r="H5" s="224"/>
-      <c r="I5" s="224"/>
-      <c r="J5" s="224"/>
-      <c r="K5" s="224"/>
-      <c r="L5" s="224"/>
-      <c r="M5" s="224"/>
-      <c r="N5" s="224"/>
-      <c r="O5" s="224"/>
-      <c r="P5" s="224"/>
-      <c r="Q5" s="224"/>
+    <row r="5" spans="1:29" s="30" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="223"/>
+      <c r="B5" s="223"/>
+      <c r="C5" s="223"/>
+      <c r="D5" s="223"/>
+      <c r="E5" s="223"/>
+      <c r="H5" s="232"/>
+      <c r="I5" s="232"/>
+      <c r="J5" s="232"/>
+      <c r="K5" s="232"/>
+      <c r="L5" s="232"/>
+      <c r="M5" s="232"/>
+      <c r="N5" s="232"/>
+      <c r="O5" s="232"/>
+      <c r="P5" s="232"/>
+      <c r="Q5" s="232"/>
       <c r="R5" s="31"/>
-      <c r="S5" s="225"/>
-      <c r="T5" s="210"/>
-      <c r="U5" s="210"/>
+      <c r="S5" s="233"/>
+      <c r="T5" s="234"/>
+      <c r="U5" s="234"/>
       <c r="V5" s="120"/>
       <c r="X5" s="84"/>
       <c r="Y5" s="3"/>
@@ -2243,159 +2240,159 @@
       <c r="AC5" s="78"/>
     </row>
     <row r="6" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="192" t="s">
+      <c r="A6" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="192" t="s">
+      <c r="B6" s="182" t="s">
         <v>150</v>
       </c>
       <c r="C6" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="213" t="s">
+      <c r="D6" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="216" t="s">
+      <c r="E6" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="192" t="s">
+      <c r="F6" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="195" t="s">
+      <c r="G6" s="180" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="195" t="s">
+      <c r="H6" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="193" t="s">
+      <c r="I6" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="195" t="s">
+      <c r="J6" s="180" t="s">
         <v>154</v>
       </c>
-      <c r="K6" s="193" t="s">
+      <c r="K6" s="197" t="s">
         <v>155</v>
       </c>
-      <c r="L6" s="193" t="s">
+      <c r="L6" s="197" t="s">
         <v>156</v>
       </c>
-      <c r="M6" s="201" t="s">
+      <c r="M6" s="224" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="193" t="s">
+      <c r="N6" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="193" t="s">
+      <c r="O6" s="197" t="s">
         <v>145</v>
       </c>
-      <c r="P6" s="202" t="s">
+      <c r="P6" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" s="202" t="s">
+      <c r="Q6" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="202" t="s">
+      <c r="R6" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="S6" s="195" t="s">
+      <c r="S6" s="180" t="s">
         <v>151</v>
       </c>
-      <c r="T6" s="202" t="s">
+      <c r="T6" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="U6" s="192" t="s">
+      <c r="U6" s="182" t="s">
         <v>22</v>
       </c>
-      <c r="V6" s="212" t="s">
+      <c r="V6" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="W6" s="172" t="s">
+      <c r="W6" s="184" t="s">
         <v>24</v>
       </c>
-      <c r="X6" s="172" t="s">
+      <c r="X6" s="184" t="s">
         <v>25</v>
       </c>
-      <c r="Y6" s="172" t="s">
+      <c r="Y6" s="184" t="s">
         <v>158</v>
       </c>
-      <c r="Z6" s="172" t="s">
+      <c r="Z6" s="184" t="s">
         <v>159</v>
       </c>
-      <c r="AA6" s="175" t="s">
+      <c r="AA6" s="187" t="s">
         <v>26</v>
       </c>
-      <c r="AB6" s="172" t="s">
+      <c r="AB6" s="184" t="s">
         <v>27</v>
       </c>
-      <c r="AC6" s="172" t="s">
+      <c r="AC6" s="184" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="192"/>
-      <c r="B7" s="192"/>
+      <c r="A7" s="182"/>
+      <c r="B7" s="182"/>
       <c r="C7" s="12"/>
-      <c r="D7" s="218"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="195"/>
-      <c r="H7" s="195"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="195"/>
-      <c r="K7" s="193"/>
-      <c r="L7" s="193"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="193"/>
-      <c r="O7" s="193"/>
-      <c r="P7" s="202"/>
-      <c r="Q7" s="202"/>
-      <c r="R7" s="202"/>
-      <c r="S7" s="195"/>
-      <c r="T7" s="202"/>
-      <c r="U7" s="192"/>
-      <c r="V7" s="212"/>
-      <c r="W7" s="173"/>
-      <c r="X7" s="173"/>
-      <c r="Y7" s="173"/>
-      <c r="Z7" s="173"/>
-      <c r="AA7" s="176"/>
-      <c r="AB7" s="173"/>
-      <c r="AC7" s="173"/>
-    </row>
-    <row r="8" spans="1:29" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="192"/>
-      <c r="B8" s="192"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="214"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="180"/>
+      <c r="K7" s="197"/>
+      <c r="L7" s="197"/>
+      <c r="M7" s="224"/>
+      <c r="N7" s="197"/>
+      <c r="O7" s="197"/>
+      <c r="P7" s="179"/>
+      <c r="Q7" s="179"/>
+      <c r="R7" s="179"/>
+      <c r="S7" s="180"/>
+      <c r="T7" s="179"/>
+      <c r="U7" s="182"/>
+      <c r="V7" s="183"/>
+      <c r="W7" s="185"/>
+      <c r="X7" s="185"/>
+      <c r="Y7" s="185"/>
+      <c r="Z7" s="185"/>
+      <c r="AA7" s="188"/>
+      <c r="AB7" s="185"/>
+      <c r="AC7" s="185"/>
+    </row>
+    <row r="8" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="182"/>
+      <c r="B8" s="182"/>
       <c r="C8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="219"/>
-      <c r="E8" s="217"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="196"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="196"/>
-      <c r="K8" s="194"/>
-      <c r="L8" s="194"/>
-      <c r="M8" s="215"/>
-      <c r="N8" s="194"/>
-      <c r="O8" s="194"/>
-      <c r="P8" s="211"/>
-      <c r="Q8" s="211"/>
-      <c r="R8" s="211"/>
-      <c r="S8" s="196"/>
-      <c r="T8" s="211"/>
-      <c r="U8" s="213"/>
-      <c r="V8" s="212"/>
-      <c r="W8" s="174"/>
-      <c r="X8" s="174"/>
-      <c r="Y8" s="174"/>
-      <c r="Z8" s="174"/>
-      <c r="AA8" s="177"/>
-      <c r="AB8" s="174"/>
-      <c r="AC8" s="174"/>
-    </row>
-    <row r="9" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="D8" s="213"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="181"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="227"/>
+      <c r="J8" s="181"/>
+      <c r="K8" s="227"/>
+      <c r="L8" s="227"/>
+      <c r="M8" s="225"/>
+      <c r="N8" s="227"/>
+      <c r="O8" s="227"/>
+      <c r="P8" s="235"/>
+      <c r="Q8" s="235"/>
+      <c r="R8" s="235"/>
+      <c r="S8" s="181"/>
+      <c r="T8" s="235"/>
+      <c r="U8" s="211"/>
+      <c r="V8" s="183"/>
+      <c r="W8" s="186"/>
+      <c r="X8" s="186"/>
+      <c r="Y8" s="186"/>
+      <c r="Z8" s="186"/>
+      <c r="AA8" s="189"/>
+      <c r="AB8" s="186"/>
+      <c r="AC8" s="186"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -2479,7 +2476,7 @@
         <v>AARON MOSELANE</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -2563,7 +2560,7 @@
         <v>ALLEN MSIMANGA</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>3</v>
       </c>
@@ -2651,7 +2648,7 @@
         <v>ANDREW ELIAS MASELELA</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>4</v>
       </c>
@@ -2729,7 +2726,7 @@
         <v>AUBREY MATHEBULA</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>5</v>
       </c>
@@ -2805,7 +2802,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>6</v>
       </c>
@@ -2857,78 +2854,78 @@
         <f t="shared" si="0"/>
         <v>3338.9999999999995</v>
       </c>
-      <c r="U14" s="186" t="s">
+      <c r="U14" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="184">
+      <c r="V14" s="202">
         <v>1213165793</v>
       </c>
-      <c r="W14" s="182">
+      <c r="W14" s="172">
         <f>T14+R14+Q14+P14</f>
         <v>3338.9999999999995</v>
       </c>
-      <c r="X14" s="180">
+      <c r="X14" s="200">
         <f>E14*8.75</f>
         <v>333.9</v>
       </c>
-      <c r="Y14" s="178">
-        <v>5</v>
-      </c>
-      <c r="Z14" s="178">
-        <v>5</v>
-      </c>
-      <c r="AA14" s="199">
+      <c r="Y14" s="242">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="242">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="174">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="AB14" s="182">
+      <c r="AB14" s="172">
         <v>8.75</v>
       </c>
-      <c r="AC14" s="186" t="str">
+      <c r="AC14" s="198" t="str">
         <f>C14</f>
         <v>BLONDY MALEPE</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="203" t="s">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" s="206" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="204"/>
-      <c r="C15" s="204"/>
-      <c r="D15" s="204"/>
-      <c r="E15" s="204"/>
-      <c r="F15" s="204"/>
-      <c r="G15" s="204"/>
-      <c r="H15" s="204"/>
-      <c r="I15" s="204"/>
-      <c r="J15" s="204"/>
-      <c r="K15" s="204"/>
-      <c r="L15" s="204"/>
-      <c r="M15" s="204"/>
-      <c r="N15" s="204"/>
-      <c r="O15" s="204"/>
-      <c r="P15" s="204"/>
-      <c r="Q15" s="204"/>
-      <c r="R15" s="204"/>
-      <c r="S15" s="205"/>
+      <c r="B15" s="207"/>
+      <c r="C15" s="207"/>
+      <c r="D15" s="207"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="207"/>
+      <c r="G15" s="207"/>
+      <c r="H15" s="207"/>
+      <c r="I15" s="207"/>
+      <c r="J15" s="207"/>
+      <c r="K15" s="207"/>
+      <c r="L15" s="207"/>
+      <c r="M15" s="207"/>
+      <c r="N15" s="207"/>
+      <c r="O15" s="207"/>
+      <c r="P15" s="207"/>
+      <c r="Q15" s="207"/>
+      <c r="R15" s="207"/>
+      <c r="S15" s="208"/>
       <c r="T15" s="16">
         <f>X2</f>
         <v>500</v>
       </c>
-      <c r="U15" s="187"/>
-      <c r="V15" s="185"/>
-      <c r="W15" s="183"/>
-      <c r="X15" s="181"/>
-      <c r="Y15" s="179"/>
-      <c r="Z15" s="179"/>
-      <c r="AA15" s="200">
+      <c r="U15" s="199"/>
+      <c r="V15" s="203"/>
+      <c r="W15" s="173"/>
+      <c r="X15" s="201"/>
+      <c r="Y15" s="243"/>
+      <c r="Z15" s="243"/>
+      <c r="AA15" s="175">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB15" s="183"/>
-      <c r="AC15" s="187"/>
-    </row>
-    <row r="16" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB15" s="173"/>
+      <c r="AC15" s="199"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>7</v>
       </c>
@@ -3012,7 +3009,7 @@
         <v>BRYNE CHINOKWETU</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="50">
         <v>8</v>
       </c>
@@ -3096,7 +3093,7 @@
         <v>COSTER MALEPE</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="50">
         <v>9</v>
       </c>
@@ -3148,76 +3145,76 @@
         <f>(E18*F18)+(G18*M18)+(H18*N18)+(I18*O18)-P18-Q18-R18+S18+L18</f>
         <v>3020.5000000000005</v>
       </c>
-      <c r="U18" s="186" t="s">
+      <c r="U18" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="184"/>
-      <c r="W18" s="182">
+      <c r="V18" s="202"/>
+      <c r="W18" s="172">
         <f>T18+R18+Q18+P18</f>
         <v>3020.5000000000005</v>
       </c>
-      <c r="X18" s="180">
+      <c r="X18" s="200">
         <f>E18*8.75</f>
         <v>302.05</v>
       </c>
-      <c r="Y18" s="178">
-        <v>5</v>
-      </c>
-      <c r="Z18" s="178">
-        <v>5</v>
-      </c>
-      <c r="AA18" s="199">
+      <c r="Y18" s="242">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="242">
+        <v>5</v>
+      </c>
+      <c r="AA18" s="174">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="AB18" s="182">
+      <c r="AB18" s="172">
         <v>8.75</v>
       </c>
-      <c r="AC18" s="186" t="str">
+      <c r="AC18" s="198" t="str">
         <f>C18</f>
         <v>DANGER MAWELELA</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="203" t="s">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" s="206" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="204"/>
-      <c r="C19" s="204"/>
-      <c r="D19" s="204"/>
-      <c r="E19" s="204"/>
-      <c r="F19" s="204"/>
-      <c r="G19" s="204"/>
-      <c r="H19" s="204"/>
-      <c r="I19" s="204"/>
-      <c r="J19" s="204"/>
-      <c r="K19" s="204"/>
-      <c r="L19" s="204"/>
-      <c r="M19" s="204"/>
-      <c r="N19" s="204"/>
-      <c r="O19" s="204"/>
-      <c r="P19" s="204"/>
-      <c r="Q19" s="204"/>
-      <c r="R19" s="204"/>
-      <c r="S19" s="205"/>
+      <c r="B19" s="207"/>
+      <c r="C19" s="207"/>
+      <c r="D19" s="207"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="207"/>
+      <c r="G19" s="207"/>
+      <c r="H19" s="207"/>
+      <c r="I19" s="207"/>
+      <c r="J19" s="207"/>
+      <c r="K19" s="207"/>
+      <c r="L19" s="207"/>
+      <c r="M19" s="207"/>
+      <c r="N19" s="207"/>
+      <c r="O19" s="207"/>
+      <c r="P19" s="207"/>
+      <c r="Q19" s="207"/>
+      <c r="R19" s="207"/>
+      <c r="S19" s="208"/>
       <c r="T19" s="16">
         <f>X2</f>
         <v>500</v>
       </c>
-      <c r="U19" s="187"/>
-      <c r="V19" s="185"/>
-      <c r="W19" s="183"/>
-      <c r="X19" s="181"/>
-      <c r="Y19" s="179"/>
-      <c r="Z19" s="179"/>
-      <c r="AA19" s="200">
+      <c r="U19" s="199"/>
+      <c r="V19" s="203"/>
+      <c r="W19" s="173"/>
+      <c r="X19" s="201"/>
+      <c r="Y19" s="243"/>
+      <c r="Z19" s="243"/>
+      <c r="AA19" s="175">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB19" s="183"/>
-      <c r="AC19" s="187"/>
-    </row>
-    <row r="20" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB19" s="173"/>
+      <c r="AC19" s="199"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="50">
         <v>10</v>
       </c>
@@ -3301,7 +3298,7 @@
         <v>DONALD JIYA</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>11</v>
       </c>
@@ -3385,7 +3382,7 @@
         <v>DUBE HAPPINESS</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="50">
         <v>12</v>
       </c>
@@ -3437,78 +3434,78 @@
         <f>(E22*F22)+(G22*M22)+(H22*N22)+(I22*O22)-P22-Q22-R22+S22+L22</f>
         <v>3913</v>
       </c>
-      <c r="U22" s="234" t="s">
+      <c r="U22" s="204" t="s">
         <v>30</v>
       </c>
-      <c r="V22" s="184">
+      <c r="V22" s="202">
         <v>10168280025</v>
       </c>
-      <c r="W22" s="182">
+      <c r="W22" s="172">
         <f>T22+R22+Q22+P22</f>
         <v>3913</v>
       </c>
-      <c r="X22" s="180">
+      <c r="X22" s="200">
         <f>E22*8.75</f>
         <v>391.3</v>
       </c>
-      <c r="Y22" s="178">
-        <v>5</v>
-      </c>
-      <c r="Z22" s="178">
-        <v>5</v>
-      </c>
-      <c r="AA22" s="199">
+      <c r="Y22" s="242">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="242">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="174">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="AB22" s="182">
+      <c r="AB22" s="172">
         <v>8.75</v>
       </c>
-      <c r="AC22" s="186" t="str">
+      <c r="AC22" s="198" t="str">
         <f>C22</f>
         <v>DUBE KUDAKWASHE</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="203" t="s">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" s="206" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="204"/>
-      <c r="C23" s="204"/>
-      <c r="D23" s="204"/>
-      <c r="E23" s="204"/>
-      <c r="F23" s="204"/>
-      <c r="G23" s="204"/>
-      <c r="H23" s="204"/>
-      <c r="I23" s="204"/>
-      <c r="J23" s="204"/>
-      <c r="K23" s="204"/>
-      <c r="L23" s="204"/>
-      <c r="M23" s="204"/>
-      <c r="N23" s="204"/>
-      <c r="O23" s="204"/>
-      <c r="P23" s="204"/>
-      <c r="Q23" s="204"/>
-      <c r="R23" s="204"/>
-      <c r="S23" s="205"/>
+      <c r="B23" s="207"/>
+      <c r="C23" s="207"/>
+      <c r="D23" s="207"/>
+      <c r="E23" s="207"/>
+      <c r="F23" s="207"/>
+      <c r="G23" s="207"/>
+      <c r="H23" s="207"/>
+      <c r="I23" s="207"/>
+      <c r="J23" s="207"/>
+      <c r="K23" s="207"/>
+      <c r="L23" s="207"/>
+      <c r="M23" s="207"/>
+      <c r="N23" s="207"/>
+      <c r="O23" s="207"/>
+      <c r="P23" s="207"/>
+      <c r="Q23" s="207"/>
+      <c r="R23" s="207"/>
+      <c r="S23" s="208"/>
       <c r="T23" s="16">
         <f>X2</f>
         <v>500</v>
       </c>
-      <c r="U23" s="235"/>
-      <c r="V23" s="185"/>
-      <c r="W23" s="183"/>
-      <c r="X23" s="181"/>
-      <c r="Y23" s="179"/>
-      <c r="Z23" s="179"/>
-      <c r="AA23" s="200">
+      <c r="U23" s="205"/>
+      <c r="V23" s="203"/>
+      <c r="W23" s="173"/>
+      <c r="X23" s="201"/>
+      <c r="Y23" s="243"/>
+      <c r="Z23" s="243"/>
+      <c r="AA23" s="175">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB23" s="183"/>
-      <c r="AC23" s="187"/>
-    </row>
-    <row r="24" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB23" s="173"/>
+      <c r="AC23" s="199"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="50">
         <v>13</v>
       </c>
@@ -3566,78 +3563,78 @@
         <f>(E24*F24)+(G24*M24)+(H24*N24)+(I24*O24)-P24-Q24-R24+S24+L24</f>
         <v>3013.5083333333332</v>
       </c>
-      <c r="U24" s="186" t="s">
+      <c r="U24" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="V24" s="184">
+      <c r="V24" s="202">
         <v>1520490826</v>
       </c>
-      <c r="W24" s="182">
+      <c r="W24" s="172">
         <f>T24+R24+Q24+P24</f>
         <v>3089.625</v>
       </c>
-      <c r="X24" s="180">
+      <c r="X24" s="200">
         <f>E24*8.75</f>
         <v>308.96250000000003</v>
       </c>
-      <c r="Y24" s="178">
-        <v>5</v>
-      </c>
-      <c r="Z24" s="178">
-        <v>5</v>
-      </c>
-      <c r="AA24" s="199">
+      <c r="Y24" s="242">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="242">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="174">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="AB24" s="182">
+      <c r="AB24" s="172">
         <v>8.75</v>
       </c>
-      <c r="AC24" s="197" t="str">
+      <c r="AC24" s="240" t="str">
         <f>C24</f>
         <v>DUMISANI ERNEST MASANGO</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="203" t="s">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25" s="206" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="204"/>
-      <c r="C25" s="204"/>
-      <c r="D25" s="204"/>
-      <c r="E25" s="204"/>
-      <c r="F25" s="204"/>
-      <c r="G25" s="204"/>
-      <c r="H25" s="204"/>
-      <c r="I25" s="204"/>
-      <c r="J25" s="204"/>
-      <c r="K25" s="204"/>
-      <c r="L25" s="204"/>
-      <c r="M25" s="204"/>
-      <c r="N25" s="204"/>
-      <c r="O25" s="204"/>
-      <c r="P25" s="204"/>
-      <c r="Q25" s="204"/>
-      <c r="R25" s="204"/>
-      <c r="S25" s="205"/>
+      <c r="B25" s="207"/>
+      <c r="C25" s="207"/>
+      <c r="D25" s="207"/>
+      <c r="E25" s="207"/>
+      <c r="F25" s="207"/>
+      <c r="G25" s="207"/>
+      <c r="H25" s="207"/>
+      <c r="I25" s="207"/>
+      <c r="J25" s="207"/>
+      <c r="K25" s="207"/>
+      <c r="L25" s="207"/>
+      <c r="M25" s="207"/>
+      <c r="N25" s="207"/>
+      <c r="O25" s="207"/>
+      <c r="P25" s="207"/>
+      <c r="Q25" s="207"/>
+      <c r="R25" s="207"/>
+      <c r="S25" s="208"/>
       <c r="T25" s="16">
         <f>X2</f>
         <v>500</v>
       </c>
-      <c r="U25" s="187"/>
-      <c r="V25" s="185"/>
-      <c r="W25" s="183"/>
-      <c r="X25" s="181"/>
-      <c r="Y25" s="179"/>
-      <c r="Z25" s="179"/>
-      <c r="AA25" s="200">
+      <c r="U25" s="199"/>
+      <c r="V25" s="203"/>
+      <c r="W25" s="173"/>
+      <c r="X25" s="201"/>
+      <c r="Y25" s="243"/>
+      <c r="Z25" s="243"/>
+      <c r="AA25" s="175">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB25" s="183"/>
-      <c r="AC25" s="198"/>
-    </row>
-    <row r="26" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB25" s="173"/>
+      <c r="AC25" s="241"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="50">
         <v>14</v>
       </c>
@@ -3726,7 +3723,7 @@
         <v>ELVIS NSIMBINI</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="50">
         <v>15</v>
       </c>
@@ -3778,76 +3775,76 @@
         <f>(E27*F27)+(G27*M27)+(H27*N27)+(I27*O27)-P27-Q27-R27+S27+L27</f>
         <v>3932.25</v>
       </c>
-      <c r="U27" s="186" t="s">
+      <c r="U27" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="V27" s="184"/>
-      <c r="W27" s="182">
+      <c r="V27" s="202"/>
+      <c r="W27" s="172">
         <f>T27+R27+Q27+P27</f>
         <v>3932.25</v>
       </c>
-      <c r="X27" s="180">
+      <c r="X27" s="200">
         <f>E27*8.75</f>
         <v>393.22499999999997</v>
       </c>
-      <c r="Y27" s="178">
-        <v>5</v>
-      </c>
-      <c r="Z27" s="178">
-        <v>5</v>
-      </c>
-      <c r="AA27" s="199">
+      <c r="Y27" s="242">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="242">
+        <v>5</v>
+      </c>
+      <c r="AA27" s="174">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="AB27" s="182">
+      <c r="AB27" s="172">
         <v>8.75</v>
       </c>
-      <c r="AC27" s="186" t="str">
+      <c r="AC27" s="198" t="str">
         <f>C27</f>
         <v xml:space="preserve">GIBBS MASETE </v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="203" t="s">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28" s="206" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="204"/>
-      <c r="C28" s="204"/>
-      <c r="D28" s="204"/>
-      <c r="E28" s="204"/>
-      <c r="F28" s="204"/>
-      <c r="G28" s="204"/>
-      <c r="H28" s="204"/>
-      <c r="I28" s="204"/>
-      <c r="J28" s="204"/>
-      <c r="K28" s="204"/>
-      <c r="L28" s="204"/>
-      <c r="M28" s="204"/>
-      <c r="N28" s="204"/>
-      <c r="O28" s="204"/>
-      <c r="P28" s="204"/>
-      <c r="Q28" s="204"/>
-      <c r="R28" s="204"/>
-      <c r="S28" s="205"/>
+      <c r="B28" s="207"/>
+      <c r="C28" s="207"/>
+      <c r="D28" s="207"/>
+      <c r="E28" s="207"/>
+      <c r="F28" s="207"/>
+      <c r="G28" s="207"/>
+      <c r="H28" s="207"/>
+      <c r="I28" s="207"/>
+      <c r="J28" s="207"/>
+      <c r="K28" s="207"/>
+      <c r="L28" s="207"/>
+      <c r="M28" s="207"/>
+      <c r="N28" s="207"/>
+      <c r="O28" s="207"/>
+      <c r="P28" s="207"/>
+      <c r="Q28" s="207"/>
+      <c r="R28" s="207"/>
+      <c r="S28" s="208"/>
       <c r="T28" s="16">
         <f>X2</f>
         <v>500</v>
       </c>
-      <c r="U28" s="187"/>
-      <c r="V28" s="185"/>
-      <c r="W28" s="183"/>
-      <c r="X28" s="181"/>
-      <c r="Y28" s="179"/>
-      <c r="Z28" s="179"/>
-      <c r="AA28" s="200">
+      <c r="U28" s="199"/>
+      <c r="V28" s="203"/>
+      <c r="W28" s="173"/>
+      <c r="X28" s="201"/>
+      <c r="Y28" s="243"/>
+      <c r="Z28" s="243"/>
+      <c r="AA28" s="175">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB28" s="183"/>
-      <c r="AC28" s="187"/>
-    </row>
-    <row r="29" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB28" s="173"/>
+      <c r="AC28" s="199"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>16</v>
       </c>
@@ -3929,7 +3926,7 @@
         <v>HERMAN NGIDI</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>17</v>
       </c>
@@ -4022,7 +4019,7 @@
         <v>HERIS MTHOMBENI</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>18</v>
       </c>
@@ -4106,7 +4103,7 @@
         <v>JACK WALTER MOICHELO</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>19</v>
       </c>
@@ -4190,7 +4187,7 @@
         <v>JANUARY SITOE</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>20</v>
       </c>
@@ -4281,7 +4278,7 @@
         <v>JOHANNES MTHOMBENI</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>21</v>
       </c>
@@ -4365,7 +4362,7 @@
         <v>JOHANNES SEGAFA</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>22</v>
       </c>
@@ -4450,7 +4447,7 @@
       </c>
       <c r="AD35" s="83"/>
     </row>
-    <row r="36" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>23</v>
       </c>
@@ -4532,7 +4529,7 @@
         <v>KHASHANE FRANS MABETWA</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>24</v>
       </c>
@@ -4616,7 +4613,7 @@
         <v>LIVINSTONE MALONGANE</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>25</v>
       </c>
@@ -4668,78 +4665,78 @@
         <f t="shared" si="32"/>
         <v>3675</v>
       </c>
-      <c r="U38" s="186" t="s">
+      <c r="U38" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="V38" s="184">
+      <c r="V38" s="202">
         <v>1553059830</v>
       </c>
-      <c r="W38" s="182">
+      <c r="W38" s="172">
         <f t="shared" si="33"/>
         <v>3675</v>
       </c>
-      <c r="X38" s="180">
+      <c r="X38" s="200">
         <f t="shared" si="34"/>
         <v>367.5</v>
       </c>
-      <c r="Y38" s="190">
-        <v>5</v>
-      </c>
-      <c r="Z38" s="178">
-        <v>5</v>
-      </c>
-      <c r="AA38" s="199">
+      <c r="Y38" s="244">
+        <v>5</v>
+      </c>
+      <c r="Z38" s="242">
+        <v>5</v>
+      </c>
+      <c r="AA38" s="174">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="AB38" s="182">
+      <c r="AB38" s="172">
         <v>8.75</v>
       </c>
-      <c r="AC38" s="186" t="str">
+      <c r="AC38" s="198" t="str">
         <f t="shared" si="35"/>
         <v>LUCKY MAKUBULE</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="203" t="s">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A39" s="206" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="204"/>
-      <c r="C39" s="204"/>
-      <c r="D39" s="204"/>
-      <c r="E39" s="204"/>
-      <c r="F39" s="204"/>
-      <c r="G39" s="204"/>
-      <c r="H39" s="204"/>
-      <c r="I39" s="204"/>
-      <c r="J39" s="204"/>
-      <c r="K39" s="204"/>
-      <c r="L39" s="204"/>
-      <c r="M39" s="204"/>
-      <c r="N39" s="204"/>
-      <c r="O39" s="204"/>
-      <c r="P39" s="204"/>
-      <c r="Q39" s="204"/>
-      <c r="R39" s="204"/>
-      <c r="S39" s="205"/>
+      <c r="B39" s="207"/>
+      <c r="C39" s="207"/>
+      <c r="D39" s="207"/>
+      <c r="E39" s="207"/>
+      <c r="F39" s="207"/>
+      <c r="G39" s="207"/>
+      <c r="H39" s="207"/>
+      <c r="I39" s="207"/>
+      <c r="J39" s="207"/>
+      <c r="K39" s="207"/>
+      <c r="L39" s="207"/>
+      <c r="M39" s="207"/>
+      <c r="N39" s="207"/>
+      <c r="O39" s="207"/>
+      <c r="P39" s="207"/>
+      <c r="Q39" s="207"/>
+      <c r="R39" s="207"/>
+      <c r="S39" s="208"/>
       <c r="T39" s="16">
         <f>X2</f>
         <v>500</v>
       </c>
-      <c r="U39" s="187"/>
-      <c r="V39" s="185"/>
-      <c r="W39" s="183"/>
-      <c r="X39" s="181"/>
-      <c r="Y39" s="191"/>
-      <c r="Z39" s="179"/>
-      <c r="AA39" s="200">
+      <c r="U39" s="199"/>
+      <c r="V39" s="203"/>
+      <c r="W39" s="173"/>
+      <c r="X39" s="201"/>
+      <c r="Y39" s="245"/>
+      <c r="Z39" s="243"/>
+      <c r="AA39" s="175">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB39" s="183"/>
-      <c r="AC39" s="187"/>
-    </row>
-    <row r="40" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB39" s="173"/>
+      <c r="AC39" s="199"/>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>26</v>
       </c>
@@ -4821,7 +4818,7 @@
         <v>LUCKY PYUNGU</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>27</v>
       </c>
@@ -4911,7 +4908,7 @@
         <v>MAECA MAHLANGU</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>28</v>
       </c>
@@ -4991,7 +4988,7 @@
         <v xml:space="preserve">MANDLA NDLOVU </v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>29</v>
       </c>
@@ -5075,7 +5072,7 @@
         <v>MBONGENI SOKUDELA</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>30</v>
       </c>
@@ -5157,7 +5154,7 @@
         <v>MORRIES MALEPE</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>31</v>
       </c>
@@ -5243,7 +5240,7 @@
         <v>MPHO MAKGOPO</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>32</v>
       </c>
@@ -5327,7 +5324,7 @@
         <v>MPHO SITHUGA</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>33</v>
       </c>
@@ -5411,7 +5408,7 @@
         <v>MSIZI MKHALIPHI</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>34</v>
       </c>
@@ -5495,7 +5492,7 @@
         <v>NDIKHO SOKUDELA</v>
       </c>
     </row>
-    <row r="49" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>35</v>
       </c>
@@ -5579,7 +5576,7 @@
         <v>NELSON SEKGOPO</v>
       </c>
     </row>
-    <row r="50" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>36</v>
       </c>
@@ -5663,7 +5660,7 @@
         <v xml:space="preserve">NKOSINATHI KHUMALO  </v>
       </c>
     </row>
-    <row r="51" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>37</v>
       </c>
@@ -5745,7 +5742,7 @@
         <v>NTOBEKO GHABILE</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>38</v>
       </c>
@@ -5827,7 +5824,7 @@
         <v>OUPA MPHOTU</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>39</v>
       </c>
@@ -5879,78 +5876,78 @@
         <f t="shared" si="50"/>
         <v>3500</v>
       </c>
-      <c r="U53" s="208" t="s">
+      <c r="U53" s="238" t="s">
         <v>36</v>
       </c>
-      <c r="V53" s="184">
+      <c r="V53" s="202">
         <v>1421309805</v>
       </c>
-      <c r="W53" s="182">
+      <c r="W53" s="172">
         <f t="shared" si="33"/>
         <v>3500</v>
       </c>
-      <c r="X53" s="206">
+      <c r="X53" s="236">
         <f t="shared" si="52"/>
         <v>350</v>
       </c>
-      <c r="Y53" s="188">
-        <v>5</v>
-      </c>
-      <c r="Z53" s="188">
-        <v>5</v>
-      </c>
-      <c r="AA53" s="199">
+      <c r="Y53" s="195">
+        <v>5</v>
+      </c>
+      <c r="Z53" s="195">
+        <v>5</v>
+      </c>
+      <c r="AA53" s="174">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="AB53" s="182">
+      <c r="AB53" s="172">
         <v>8.75</v>
       </c>
-      <c r="AC53" s="186" t="str">
+      <c r="AC53" s="198" t="str">
         <f t="shared" si="53"/>
         <v>PATRICK MASILELA</v>
       </c>
     </row>
-    <row r="54" spans="1:29" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="203" t="s">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A54" s="206" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="204"/>
-      <c r="C54" s="204"/>
-      <c r="D54" s="204"/>
-      <c r="E54" s="204"/>
-      <c r="F54" s="204"/>
-      <c r="G54" s="204"/>
-      <c r="H54" s="204"/>
-      <c r="I54" s="204"/>
-      <c r="J54" s="204"/>
-      <c r="K54" s="204"/>
-      <c r="L54" s="204"/>
-      <c r="M54" s="204"/>
-      <c r="N54" s="204"/>
-      <c r="O54" s="204"/>
-      <c r="P54" s="204"/>
-      <c r="Q54" s="204"/>
-      <c r="R54" s="204"/>
-      <c r="S54" s="205"/>
+      <c r="B54" s="207"/>
+      <c r="C54" s="207"/>
+      <c r="D54" s="207"/>
+      <c r="E54" s="207"/>
+      <c r="F54" s="207"/>
+      <c r="G54" s="207"/>
+      <c r="H54" s="207"/>
+      <c r="I54" s="207"/>
+      <c r="J54" s="207"/>
+      <c r="K54" s="207"/>
+      <c r="L54" s="207"/>
+      <c r="M54" s="207"/>
+      <c r="N54" s="207"/>
+      <c r="O54" s="207"/>
+      <c r="P54" s="207"/>
+      <c r="Q54" s="207"/>
+      <c r="R54" s="207"/>
+      <c r="S54" s="208"/>
       <c r="T54" s="16">
         <f>X2</f>
         <v>500</v>
       </c>
-      <c r="U54" s="209"/>
-      <c r="V54" s="185"/>
-      <c r="W54" s="183"/>
-      <c r="X54" s="207"/>
-      <c r="Y54" s="189"/>
-      <c r="Z54" s="189"/>
-      <c r="AA54" s="200">
+      <c r="U54" s="239"/>
+      <c r="V54" s="203"/>
+      <c r="W54" s="173"/>
+      <c r="X54" s="237"/>
+      <c r="Y54" s="196"/>
+      <c r="Z54" s="196"/>
+      <c r="AA54" s="175">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB54" s="183"/>
-      <c r="AC54" s="187"/>
-    </row>
-    <row r="55" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB54" s="173"/>
+      <c r="AC54" s="199"/>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="50">
         <v>40</v>
       </c>
@@ -6030,14 +6027,14 @@
         <v>PEACE MAKHOKHA</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="50">
         <v>41</v>
       </c>
       <c r="B56" s="50">
         <v>338</v>
       </c>
-      <c r="C56" s="269" t="s">
+      <c r="C56" s="8" t="s">
         <v>66</v>
       </c>
       <c r="D56" s="8" t="s">
@@ -6115,7 +6112,7 @@
         <v>PETROS SHITLANGU</v>
       </c>
     </row>
-    <row r="58" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="85"/>
       <c r="B58" s="85"/>
       <c r="C58" s="85"/>
@@ -6146,159 +6143,159 @@
       <c r="AC58" s="89"/>
     </row>
     <row r="59" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="192" t="s">
+      <c r="A59" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="192" t="s">
+      <c r="B59" s="182" t="s">
         <v>150</v>
       </c>
       <c r="C59" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="D59" s="213" t="s">
+      <c r="D59" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="216" t="s">
+      <c r="E59" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="F59" s="192" t="s">
+      <c r="F59" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="G59" s="195" t="s">
+      <c r="G59" s="180" t="s">
         <v>11</v>
       </c>
-      <c r="H59" s="195" t="s">
+      <c r="H59" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="I59" s="193" t="s">
+      <c r="I59" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="J59" s="195" t="s">
+      <c r="J59" s="180" t="s">
         <v>154</v>
       </c>
-      <c r="K59" s="193" t="s">
+      <c r="K59" s="197" t="s">
         <v>155</v>
       </c>
-      <c r="L59" s="193" t="s">
+      <c r="L59" s="197" t="s">
         <v>156</v>
       </c>
-      <c r="M59" s="201" t="s">
+      <c r="M59" s="224" t="s">
         <v>14</v>
       </c>
-      <c r="N59" s="193" t="s">
+      <c r="N59" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="O59" s="193" t="s">
+      <c r="O59" s="197" t="s">
         <v>16</v>
       </c>
-      <c r="P59" s="202" t="s">
+      <c r="P59" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="Q59" s="202" t="s">
+      <c r="Q59" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="R59" s="202" t="s">
+      <c r="R59" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="S59" s="195" t="s">
+      <c r="S59" s="180" t="s">
         <v>151</v>
       </c>
-      <c r="T59" s="202" t="s">
+      <c r="T59" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="U59" s="192" t="s">
+      <c r="U59" s="182" t="s">
         <v>22</v>
       </c>
-      <c r="V59" s="212" t="s">
+      <c r="V59" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="W59" s="172" t="s">
+      <c r="W59" s="184" t="s">
         <v>24</v>
       </c>
-      <c r="X59" s="172" t="s">
+      <c r="X59" s="184" t="s">
         <v>25</v>
       </c>
-      <c r="Y59" s="172" t="s">
+      <c r="Y59" s="184" t="s">
         <v>158</v>
       </c>
-      <c r="Z59" s="172" t="s">
+      <c r="Z59" s="184" t="s">
         <v>159</v>
       </c>
-      <c r="AA59" s="175" t="s">
+      <c r="AA59" s="187" t="s">
         <v>26</v>
       </c>
-      <c r="AB59" s="172" t="s">
+      <c r="AB59" s="184" t="s">
         <v>27</v>
       </c>
-      <c r="AC59" s="172" t="s">
+      <c r="AC59" s="184" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="192"/>
-      <c r="B60" s="192"/>
+      <c r="A60" s="182"/>
+      <c r="B60" s="182"/>
       <c r="C60" s="12"/>
-      <c r="D60" s="218"/>
-      <c r="E60" s="216"/>
-      <c r="F60" s="192"/>
-      <c r="G60" s="195"/>
-      <c r="H60" s="195"/>
-      <c r="I60" s="193"/>
-      <c r="J60" s="195"/>
-      <c r="K60" s="193"/>
-      <c r="L60" s="193"/>
-      <c r="M60" s="201"/>
-      <c r="N60" s="193"/>
-      <c r="O60" s="193"/>
-      <c r="P60" s="202"/>
-      <c r="Q60" s="202"/>
-      <c r="R60" s="202"/>
-      <c r="S60" s="195"/>
-      <c r="T60" s="202"/>
-      <c r="U60" s="192"/>
-      <c r="V60" s="212"/>
-      <c r="W60" s="173"/>
-      <c r="X60" s="173"/>
-      <c r="Y60" s="173"/>
-      <c r="Z60" s="173"/>
-      <c r="AA60" s="176"/>
-      <c r="AB60" s="173"/>
-      <c r="AC60" s="173"/>
-    </row>
-    <row r="61" spans="1:29" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="192"/>
-      <c r="B61" s="192"/>
+      <c r="D60" s="212"/>
+      <c r="E60" s="214"/>
+      <c r="F60" s="182"/>
+      <c r="G60" s="180"/>
+      <c r="H60" s="180"/>
+      <c r="I60" s="197"/>
+      <c r="J60" s="180"/>
+      <c r="K60" s="197"/>
+      <c r="L60" s="197"/>
+      <c r="M60" s="224"/>
+      <c r="N60" s="197"/>
+      <c r="O60" s="197"/>
+      <c r="P60" s="179"/>
+      <c r="Q60" s="179"/>
+      <c r="R60" s="179"/>
+      <c r="S60" s="180"/>
+      <c r="T60" s="179"/>
+      <c r="U60" s="182"/>
+      <c r="V60" s="183"/>
+      <c r="W60" s="185"/>
+      <c r="X60" s="185"/>
+      <c r="Y60" s="185"/>
+      <c r="Z60" s="185"/>
+      <c r="AA60" s="188"/>
+      <c r="AB60" s="185"/>
+      <c r="AC60" s="185"/>
+    </row>
+    <row r="61" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="182"/>
+      <c r="B61" s="182"/>
       <c r="C61" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="D61" s="219"/>
-      <c r="E61" s="216"/>
-      <c r="F61" s="192"/>
-      <c r="G61" s="195"/>
-      <c r="H61" s="195"/>
-      <c r="I61" s="193"/>
-      <c r="J61" s="196"/>
-      <c r="K61" s="194"/>
-      <c r="L61" s="194"/>
-      <c r="M61" s="201"/>
-      <c r="N61" s="193"/>
-      <c r="O61" s="193"/>
-      <c r="P61" s="202"/>
-      <c r="Q61" s="202"/>
-      <c r="R61" s="202"/>
-      <c r="S61" s="196"/>
-      <c r="T61" s="202"/>
-      <c r="U61" s="192"/>
-      <c r="V61" s="212"/>
-      <c r="W61" s="174"/>
-      <c r="X61" s="174"/>
-      <c r="Y61" s="174"/>
-      <c r="Z61" s="174"/>
-      <c r="AA61" s="177"/>
-      <c r="AB61" s="174"/>
-      <c r="AC61" s="174"/>
-    </row>
-    <row r="62" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="D61" s="213"/>
+      <c r="E61" s="214"/>
+      <c r="F61" s="182"/>
+      <c r="G61" s="180"/>
+      <c r="H61" s="180"/>
+      <c r="I61" s="197"/>
+      <c r="J61" s="181"/>
+      <c r="K61" s="227"/>
+      <c r="L61" s="227"/>
+      <c r="M61" s="224"/>
+      <c r="N61" s="197"/>
+      <c r="O61" s="197"/>
+      <c r="P61" s="179"/>
+      <c r="Q61" s="179"/>
+      <c r="R61" s="179"/>
+      <c r="S61" s="181"/>
+      <c r="T61" s="179"/>
+      <c r="U61" s="182"/>
+      <c r="V61" s="183"/>
+      <c r="W61" s="186"/>
+      <c r="X61" s="186"/>
+      <c r="Y61" s="186"/>
+      <c r="Z61" s="186"/>
+      <c r="AA61" s="189"/>
+      <c r="AB61" s="186"/>
+      <c r="AC61" s="186"/>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="50">
         <v>42</v>
       </c>
@@ -6382,7 +6379,7 @@
         <v>PHILISANI NDLOVU</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="50">
         <v>43</v>
       </c>
@@ -6472,7 +6469,7 @@
         <v>ROVER BULUNGA</v>
       </c>
     </row>
-    <row r="64" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="50">
         <v>44</v>
       </c>
@@ -6560,7 +6557,7 @@
         <v>SANYANE JOHN BHUDA</v>
       </c>
     </row>
-    <row r="65" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="50">
         <v>45</v>
       </c>
@@ -6644,7 +6641,7 @@
         <v>SHERRIFF MASELANI</v>
       </c>
     </row>
-    <row r="66" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="50">
         <v>46</v>
       </c>
@@ -6734,7 +6731,7 @@
         <v>SFISO MAHLANGU</v>
       </c>
     </row>
-    <row r="67" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="50">
         <v>47</v>
       </c>
@@ -6818,7 +6815,7 @@
         <v>SIMBONGILE MPEPHO</v>
       </c>
     </row>
-    <row r="68" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="50">
         <v>48</v>
       </c>
@@ -6902,7 +6899,7 @@
         <v>SIPHO SIMILO MAZIBUKO</v>
       </c>
     </row>
-    <row r="69" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" s="50">
         <v>49</v>
       </c>
@@ -6984,7 +6981,7 @@
         <v>SIPHIWE MASHITENG</v>
       </c>
     </row>
-    <row r="70" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="50">
         <v>50</v>
       </c>
@@ -7062,7 +7059,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="71" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" s="50">
         <v>51</v>
       </c>
@@ -7120,77 +7117,77 @@
         <f t="shared" si="64"/>
         <v>2986.3833333333332</v>
       </c>
-      <c r="U71" s="236" t="s">
+      <c r="U71" s="209" t="s">
         <v>36</v>
       </c>
-      <c r="V71" s="184">
+      <c r="V71" s="202">
         <v>1419444695</v>
       </c>
-      <c r="W71" s="182">
+      <c r="W71" s="172">
         <f>T71+R71+Q71+P71</f>
         <v>3062.5</v>
       </c>
-      <c r="X71" s="241">
+      <c r="X71" s="190">
         <f t="shared" si="66"/>
         <v>306.25</v>
       </c>
-      <c r="Y71" s="188">
-        <v>5</v>
-      </c>
-      <c r="Z71" s="188">
-        <v>5</v>
-      </c>
-      <c r="AA71" s="199">
+      <c r="Y71" s="195">
+        <v>5</v>
+      </c>
+      <c r="Z71" s="195">
+        <v>5</v>
+      </c>
+      <c r="AA71" s="174">
         <f t="shared" si="67"/>
         <v>10</v>
       </c>
-      <c r="AB71" s="182">
+      <c r="AB71" s="172">
         <v>8.75</v>
       </c>
-      <c r="AC71" s="186" t="str">
+      <c r="AC71" s="198" t="str">
         <f>C71</f>
         <v>SIX MATEPSA</v>
       </c>
     </row>
-    <row r="72" spans="1:29" ht="15" x14ac:dyDescent="0.2">
-      <c r="A72" s="203" t="s">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A72" s="206" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="204"/>
-      <c r="C72" s="204"/>
-      <c r="D72" s="204"/>
-      <c r="E72" s="204"/>
-      <c r="F72" s="204"/>
-      <c r="G72" s="204"/>
-      <c r="H72" s="204"/>
-      <c r="I72" s="204"/>
-      <c r="J72" s="204"/>
-      <c r="K72" s="204"/>
-      <c r="L72" s="204"/>
-      <c r="M72" s="204"/>
-      <c r="N72" s="204"/>
-      <c r="O72" s="204"/>
-      <c r="P72" s="204"/>
-      <c r="Q72" s="204"/>
-      <c r="R72" s="204"/>
-      <c r="S72" s="205"/>
+      <c r="B72" s="207"/>
+      <c r="C72" s="207"/>
+      <c r="D72" s="207"/>
+      <c r="E72" s="207"/>
+      <c r="F72" s="207"/>
+      <c r="G72" s="207"/>
+      <c r="H72" s="207"/>
+      <c r="I72" s="207"/>
+      <c r="J72" s="207"/>
+      <c r="K72" s="207"/>
+      <c r="L72" s="207"/>
+      <c r="M72" s="207"/>
+      <c r="N72" s="207"/>
+      <c r="O72" s="207"/>
+      <c r="P72" s="207"/>
+      <c r="Q72" s="207"/>
+      <c r="R72" s="207"/>
+      <c r="S72" s="208"/>
       <c r="T72" s="16">
         <v>250</v>
       </c>
-      <c r="U72" s="237"/>
-      <c r="V72" s="185"/>
-      <c r="W72" s="183"/>
-      <c r="X72" s="242"/>
-      <c r="Y72" s="189"/>
-      <c r="Z72" s="189"/>
-      <c r="AA72" s="200">
+      <c r="U72" s="210"/>
+      <c r="V72" s="203"/>
+      <c r="W72" s="173"/>
+      <c r="X72" s="191"/>
+      <c r="Y72" s="196"/>
+      <c r="Z72" s="196"/>
+      <c r="AA72" s="175">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="AB72" s="183"/>
-      <c r="AC72" s="187"/>
-    </row>
-    <row r="73" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB72" s="173"/>
+      <c r="AC72" s="199"/>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>52</v>
       </c>
@@ -7274,7 +7271,7 @@
         <v>STUART KHOZA</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>53</v>
       </c>
@@ -7358,7 +7355,7 @@
         <v>TAKALANI TSHINONI</v>
       </c>
     </row>
-    <row r="75" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>54</v>
       </c>
@@ -7440,7 +7437,7 @@
         <v>THOKOZANI SIBANYONI</v>
       </c>
     </row>
-    <row r="76" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>55</v>
       </c>
@@ -7524,7 +7521,7 @@
         <v>THUSO MULELU</v>
       </c>
     </row>
-    <row r="77" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>56</v>
       </c>
@@ -7608,7 +7605,7 @@
         <v>TSULUFELO NCUBE</v>
       </c>
     </row>
-    <row r="78" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>57</v>
       </c>
@@ -7698,7 +7695,7 @@
         <v>XOLANI MTSHWENI</v>
       </c>
     </row>
-    <row r="79" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>58</v>
       </c>
@@ -7782,7 +7779,7 @@
         <v>ZAZI NDLOVU</v>
       </c>
     </row>
-    <row r="80" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>59</v>
       </c>
@@ -7866,7 +7863,7 @@
         <v>ZONGEZILE NYEMBEZI</v>
       </c>
     </row>
-    <row r="81" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81" s="85"/>
       <c r="B81" s="85"/>
       <c r="C81" s="85"/>
@@ -7896,7 +7893,7 @@
       <c r="AB81" s="86"/>
       <c r="AC81" s="89"/>
     </row>
-    <row r="82" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>60</v>
       </c>
@@ -7973,14 +7970,14 @@
         <v>MERCY NDLOVU</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="V83" s="126"/>
       <c r="X83" s="74"/>
       <c r="Y83" s="4"/>
       <c r="Z83" s="4"/>
       <c r="AC83" s="5"/>
     </row>
-    <row r="84" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="10"/>
@@ -8013,7 +8010,7 @@
       <c r="Z84" s="4"/>
       <c r="AC84" s="5"/>
     </row>
-    <row r="85" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="10"/>
@@ -8031,160 +8028,160 @@
       <c r="Z85" s="3"/>
       <c r="AC85" s="5"/>
     </row>
-    <row r="86" spans="1:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="192" t="s">
+    <row r="86" spans="1:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="B86" s="192" t="s">
+      <c r="B86" s="182" t="s">
         <v>150</v>
       </c>
-      <c r="C86" s="222" t="s">
+      <c r="C86" s="230" t="s">
         <v>85</v>
       </c>
-      <c r="D86" s="213" t="s">
+      <c r="D86" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="E86" s="216" t="s">
+      <c r="E86" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="F86" s="192" t="s">
+      <c r="F86" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="G86" s="195" t="s">
+      <c r="G86" s="180" t="s">
         <v>11</v>
       </c>
-      <c r="H86" s="196" t="s">
+      <c r="H86" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="I86" s="193" t="s">
+      <c r="I86" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="J86" s="195" t="s">
+      <c r="J86" s="180" t="s">
         <v>154</v>
       </c>
-      <c r="K86" s="193" t="s">
+      <c r="K86" s="197" t="s">
         <v>155</v>
       </c>
-      <c r="L86" s="193" t="s">
+      <c r="L86" s="197" t="s">
         <v>156</v>
       </c>
-      <c r="M86" s="201" t="s">
+      <c r="M86" s="224" t="s">
         <v>14</v>
       </c>
-      <c r="N86" s="193" t="s">
+      <c r="N86" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="O86" s="193" t="s">
+      <c r="O86" s="197" t="s">
         <v>16</v>
       </c>
-      <c r="P86" s="202" t="s">
+      <c r="P86" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="Q86" s="202" t="s">
+      <c r="Q86" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="R86" s="202" t="s">
+      <c r="R86" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="S86" s="195" t="s">
+      <c r="S86" s="180" t="s">
         <v>151</v>
       </c>
-      <c r="T86" s="202" t="s">
+      <c r="T86" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="U86" s="192" t="s">
+      <c r="U86" s="182" t="s">
         <v>22</v>
       </c>
-      <c r="V86" s="212" t="s">
+      <c r="V86" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="W86" s="172" t="s">
+      <c r="W86" s="184" t="s">
         <v>24</v>
       </c>
-      <c r="X86" s="172" t="s">
+      <c r="X86" s="184" t="s">
         <v>25</v>
       </c>
-      <c r="Y86" s="172" t="s">
+      <c r="Y86" s="184" t="s">
         <v>158</v>
       </c>
-      <c r="Z86" s="172" t="s">
+      <c r="Z86" s="184" t="s">
         <v>159</v>
       </c>
-      <c r="AA86" s="175" t="s">
+      <c r="AA86" s="187" t="s">
         <v>26</v>
       </c>
-      <c r="AB86" s="172" t="s">
+      <c r="AB86" s="184" t="s">
         <v>27</v>
       </c>
-      <c r="AC86" s="172" t="s">
+      <c r="AC86" s="184" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:29" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="192"/>
-      <c r="B87" s="192"/>
-      <c r="C87" s="223"/>
-      <c r="D87" s="218"/>
-      <c r="E87" s="216"/>
-      <c r="F87" s="192"/>
-      <c r="G87" s="195"/>
-      <c r="H87" s="220"/>
-      <c r="I87" s="193"/>
-      <c r="J87" s="195"/>
-      <c r="K87" s="193"/>
-      <c r="L87" s="193"/>
-      <c r="M87" s="201"/>
-      <c r="N87" s="193"/>
-      <c r="O87" s="193"/>
-      <c r="P87" s="202"/>
-      <c r="Q87" s="202"/>
-      <c r="R87" s="202"/>
-      <c r="S87" s="195"/>
-      <c r="T87" s="202"/>
-      <c r="U87" s="192"/>
-      <c r="V87" s="212"/>
-      <c r="W87" s="173"/>
-      <c r="X87" s="173"/>
-      <c r="Y87" s="173"/>
-      <c r="Z87" s="173"/>
-      <c r="AA87" s="176"/>
-      <c r="AB87" s="173"/>
-      <c r="AC87" s="173"/>
-    </row>
-    <row r="88" spans="1:29" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="192"/>
-      <c r="B88" s="192"/>
+    <row r="87" spans="1:29" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="182"/>
+      <c r="B87" s="182"/>
+      <c r="C87" s="231"/>
+      <c r="D87" s="212"/>
+      <c r="E87" s="214"/>
+      <c r="F87" s="182"/>
+      <c r="G87" s="180"/>
+      <c r="H87" s="228"/>
+      <c r="I87" s="197"/>
+      <c r="J87" s="180"/>
+      <c r="K87" s="197"/>
+      <c r="L87" s="197"/>
+      <c r="M87" s="224"/>
+      <c r="N87" s="197"/>
+      <c r="O87" s="197"/>
+      <c r="P87" s="179"/>
+      <c r="Q87" s="179"/>
+      <c r="R87" s="179"/>
+      <c r="S87" s="180"/>
+      <c r="T87" s="179"/>
+      <c r="U87" s="182"/>
+      <c r="V87" s="183"/>
+      <c r="W87" s="185"/>
+      <c r="X87" s="185"/>
+      <c r="Y87" s="185"/>
+      <c r="Z87" s="185"/>
+      <c r="AA87" s="188"/>
+      <c r="AB87" s="185"/>
+      <c r="AC87" s="185"/>
+    </row>
+    <row r="88" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="182"/>
+      <c r="B88" s="182"/>
       <c r="C88" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="219"/>
-      <c r="E88" s="216"/>
-      <c r="F88" s="192"/>
-      <c r="G88" s="195"/>
-      <c r="H88" s="221"/>
-      <c r="I88" s="193"/>
-      <c r="J88" s="196"/>
-      <c r="K88" s="194"/>
-      <c r="L88" s="194"/>
-      <c r="M88" s="201"/>
-      <c r="N88" s="193"/>
-      <c r="O88" s="193"/>
-      <c r="P88" s="202"/>
-      <c r="Q88" s="202"/>
-      <c r="R88" s="202"/>
-      <c r="S88" s="196"/>
-      <c r="T88" s="202"/>
-      <c r="U88" s="192"/>
-      <c r="V88" s="212"/>
-      <c r="W88" s="174"/>
-      <c r="X88" s="174"/>
-      <c r="Y88" s="174"/>
-      <c r="Z88" s="174"/>
-      <c r="AA88" s="177"/>
-      <c r="AB88" s="174"/>
-      <c r="AC88" s="174"/>
-    </row>
-    <row r="89" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="D88" s="213"/>
+      <c r="E88" s="214"/>
+      <c r="F88" s="182"/>
+      <c r="G88" s="180"/>
+      <c r="H88" s="229"/>
+      <c r="I88" s="197"/>
+      <c r="J88" s="181"/>
+      <c r="K88" s="227"/>
+      <c r="L88" s="227"/>
+      <c r="M88" s="224"/>
+      <c r="N88" s="197"/>
+      <c r="O88" s="197"/>
+      <c r="P88" s="179"/>
+      <c r="Q88" s="179"/>
+      <c r="R88" s="179"/>
+      <c r="S88" s="181"/>
+      <c r="T88" s="179"/>
+      <c r="U88" s="182"/>
+      <c r="V88" s="183"/>
+      <c r="W88" s="186"/>
+      <c r="X88" s="186"/>
+      <c r="Y88" s="186"/>
+      <c r="Z88" s="186"/>
+      <c r="AA88" s="189"/>
+      <c r="AB88" s="186"/>
+      <c r="AC88" s="186"/>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89" s="148"/>
       <c r="B89" s="148"/>
       <c r="C89" s="51"/>
@@ -8218,7 +8215,7 @@
       <c r="AB89" s="63"/>
       <c r="AC89" s="8"/>
     </row>
-    <row r="90" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90" s="148"/>
       <c r="B90" s="148"/>
       <c r="C90" s="51"/>
@@ -8252,7 +8249,7 @@
       <c r="AB90" s="63"/>
       <c r="AC90" s="8"/>
     </row>
-    <row r="91" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91" s="148"/>
       <c r="B91" s="148"/>
       <c r="C91" s="150"/>
@@ -8286,7 +8283,7 @@
       <c r="AB91" s="63"/>
       <c r="AC91" s="8"/>
     </row>
-    <row r="92" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92" s="148"/>
       <c r="B92" s="148"/>
       <c r="C92" s="150"/>
@@ -8320,7 +8317,7 @@
       <c r="AB92" s="63"/>
       <c r="AC92" s="8"/>
     </row>
-    <row r="93" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93" s="148"/>
       <c r="B93" s="148"/>
       <c r="C93" s="150"/>
@@ -8354,7 +8351,7 @@
       <c r="AB93" s="63"/>
       <c r="AC93" s="8"/>
     </row>
-    <row r="94" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="72"/>
       <c r="C94" s="149"/>
@@ -8388,7 +8385,7 @@
       <c r="AB94" s="63"/>
       <c r="AC94" s="70"/>
     </row>
-    <row r="95" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="8"/>
@@ -8422,7 +8419,7 @@
       <c r="AB95" s="63"/>
       <c r="AC95" s="70"/>
     </row>
-    <row r="96" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="8"/>
@@ -8456,7 +8453,7 @@
       <c r="AB96" s="63"/>
       <c r="AC96" s="8"/>
     </row>
-    <row r="97" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="8"/>
@@ -8490,14 +8487,14 @@
       <c r="AB97" s="63"/>
       <c r="AC97" s="70"/>
     </row>
-    <row r="99" spans="1:29" ht="15" x14ac:dyDescent="0.25">
-      <c r="A99" s="192"/>
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A99" s="182"/>
       <c r="B99" s="165"/>
-      <c r="C99" s="232" t="s">
+      <c r="C99" s="221" t="s">
         <v>17</v>
       </c>
-      <c r="D99" s="233"/>
-      <c r="E99" s="192" t="s">
+      <c r="D99" s="222"/>
+      <c r="E99" s="182" t="s">
         <v>157</v>
       </c>
       <c r="P99" s="7">
@@ -8522,16 +8519,16 @@
       </c>
       <c r="U99" s="4"/>
     </row>
-    <row r="100" spans="1:29" ht="15" x14ac:dyDescent="0.25">
-      <c r="A100" s="192"/>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A100" s="182"/>
       <c r="B100" s="166"/>
-      <c r="C100" s="228" t="s">
+      <c r="C100" s="217" t="s">
         <v>93</v>
       </c>
-      <c r="D100" s="229"/>
-      <c r="E100" s="192"/>
-    </row>
-    <row r="101" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="D100" s="218"/>
+      <c r="E100" s="182"/>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>1</v>
       </c>
@@ -8540,15 +8537,15 @@
       <c r="D101" s="147"/>
       <c r="E101" s="23"/>
       <c r="F101" s="10"/>
-      <c r="H101" s="227" t="s">
+      <c r="H101" s="216" t="s">
         <v>94</v>
       </c>
-      <c r="I101" s="227"/>
-      <c r="J101" s="227"/>
-      <c r="K101" s="227"/>
-      <c r="L101" s="227"/>
-      <c r="M101" s="227"/>
-      <c r="N101" s="227"/>
+      <c r="I101" s="216"/>
+      <c r="J101" s="216"/>
+      <c r="K101" s="216"/>
+      <c r="L101" s="216"/>
+      <c r="M101" s="216"/>
+      <c r="N101" s="216"/>
       <c r="O101" s="133"/>
       <c r="P101" s="7">
         <f>P84+P99</f>
@@ -8571,7 +8568,7 @@
         <v>186377.43749999997</v>
       </c>
     </row>
-    <row r="102" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>2</v>
       </c>
@@ -8579,15 +8576,15 @@
       <c r="C102" s="134"/>
       <c r="D102" s="135"/>
       <c r="E102" s="23"/>
-      <c r="H102" s="227" t="s">
+      <c r="H102" s="216" t="s">
         <v>95</v>
       </c>
-      <c r="I102" s="227"/>
-      <c r="J102" s="227"/>
-      <c r="K102" s="227"/>
-      <c r="L102" s="227"/>
-      <c r="M102" s="227"/>
-      <c r="N102" s="227"/>
+      <c r="I102" s="216"/>
+      <c r="J102" s="216"/>
+      <c r="K102" s="216"/>
+      <c r="L102" s="216"/>
+      <c r="M102" s="216"/>
+      <c r="N102" s="216"/>
       <c r="O102" s="133"/>
       <c r="P102" s="7">
         <f>P99</f>
@@ -8610,7 +8607,7 @@
         <v>225396.07916666663</v>
       </c>
     </row>
-    <row r="103" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>3</v>
       </c>
@@ -8618,15 +8615,15 @@
       <c r="C103" s="134"/>
       <c r="D103" s="135"/>
       <c r="E103" s="23"/>
-      <c r="H103" s="227" t="s">
+      <c r="H103" s="216" t="s">
         <v>96</v>
       </c>
-      <c r="I103" s="227"/>
-      <c r="J103" s="227"/>
-      <c r="K103" s="227"/>
-      <c r="L103" s="227"/>
-      <c r="M103" s="227"/>
-      <c r="N103" s="227"/>
+      <c r="I103" s="216"/>
+      <c r="J103" s="216"/>
+      <c r="K103" s="216"/>
+      <c r="L103" s="216"/>
+      <c r="M103" s="216"/>
+      <c r="N103" s="216"/>
       <c r="O103" s="133"/>
       <c r="P103" s="7">
         <f t="shared" ref="P103:S103" si="105">P101+P102</f>
@@ -8649,7 +8646,7 @@
         <v>411773.5166666666</v>
       </c>
     </row>
-    <row r="104" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>4</v>
       </c>
@@ -8681,7 +8678,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>5</v>
       </c>
@@ -8690,7 +8687,7 @@
       <c r="D105" s="135"/>
       <c r="E105" s="23"/>
     </row>
-    <row r="106" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>6</v>
       </c>
@@ -8698,29 +8695,29 @@
       <c r="C106" s="134"/>
       <c r="D106" s="135"/>
       <c r="E106" s="23"/>
-      <c r="H106" s="230" t="s">
+      <c r="H106" s="219" t="s">
         <v>94</v>
       </c>
-      <c r="I106" s="230"/>
-      <c r="J106" s="230"/>
-      <c r="K106" s="230"/>
-      <c r="L106" s="230"/>
-      <c r="M106" s="230"/>
-      <c r="N106" s="230"/>
+      <c r="I106" s="219"/>
+      <c r="J106" s="219"/>
+      <c r="K106" s="219"/>
+      <c r="L106" s="219"/>
+      <c r="M106" s="219"/>
+      <c r="N106" s="219"/>
       <c r="O106" s="136"/>
       <c r="P106" s="25">
         <f>T101</f>
         <v>186377.43749999997</v>
       </c>
-      <c r="R106" s="243" t="s">
+      <c r="R106" s="192" t="s">
         <v>98</v>
       </c>
-      <c r="S106" s="244"/>
-      <c r="T106" s="244"/>
-      <c r="U106" s="244"/>
-      <c r="V106" s="245"/>
-    </row>
-    <row r="107" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="S106" s="193"/>
+      <c r="T106" s="193"/>
+      <c r="U106" s="193"/>
+      <c r="V106" s="194"/>
+    </row>
+    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>7</v>
       </c>
@@ -8728,15 +8725,15 @@
       <c r="C107" s="134"/>
       <c r="D107" s="135"/>
       <c r="E107" s="23"/>
-      <c r="H107" s="230" t="s">
+      <c r="H107" s="219" t="s">
         <v>140</v>
       </c>
-      <c r="I107" s="230"/>
-      <c r="J107" s="230"/>
-      <c r="K107" s="230"/>
-      <c r="L107" s="230"/>
-      <c r="M107" s="230"/>
-      <c r="N107" s="230"/>
+      <c r="I107" s="219"/>
+      <c r="J107" s="219"/>
+      <c r="K107" s="219"/>
+      <c r="L107" s="219"/>
+      <c r="M107" s="219"/>
+      <c r="N107" s="219"/>
       <c r="O107" s="136"/>
       <c r="P107" s="25">
         <f>T102</f>
@@ -8750,7 +8747,7 @@
       <c r="U107" s="141"/>
       <c r="V107" s="142"/>
     </row>
-    <row r="108" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>8</v>
       </c>
@@ -8758,15 +8755,15 @@
       <c r="C108" s="134"/>
       <c r="D108" s="135"/>
       <c r="E108" s="23"/>
-      <c r="H108" s="227" t="s">
+      <c r="H108" s="216" t="s">
         <v>141</v>
       </c>
-      <c r="I108" s="227"/>
-      <c r="J108" s="227"/>
-      <c r="K108" s="227"/>
-      <c r="L108" s="227"/>
-      <c r="M108" s="227"/>
-      <c r="N108" s="227"/>
+      <c r="I108" s="216"/>
+      <c r="J108" s="216"/>
+      <c r="K108" s="216"/>
+      <c r="L108" s="216"/>
+      <c r="M108" s="216"/>
+      <c r="N108" s="216"/>
       <c r="O108" s="133"/>
       <c r="P108" s="25">
         <f>SUM(E101:E110)</f>
@@ -8778,7 +8775,7 @@
       <c r="U108" s="144"/>
       <c r="V108" s="145"/>
     </row>
-    <row r="109" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>9</v>
       </c>
@@ -8786,22 +8783,22 @@
       <c r="C109" s="134"/>
       <c r="D109" s="135"/>
       <c r="E109" s="23"/>
-      <c r="H109" s="231"/>
-      <c r="I109" s="227"/>
-      <c r="J109" s="227"/>
-      <c r="K109" s="227"/>
-      <c r="L109" s="227"/>
-      <c r="M109" s="227"/>
-      <c r="N109" s="227"/>
+      <c r="H109" s="220"/>
+      <c r="I109" s="216"/>
+      <c r="J109" s="216"/>
+      <c r="K109" s="216"/>
+      <c r="L109" s="216"/>
+      <c r="M109" s="216"/>
+      <c r="N109" s="216"/>
       <c r="O109" s="133"/>
       <c r="P109" s="25"/>
-      <c r="R109" s="238"/>
-      <c r="S109" s="239"/>
-      <c r="T109" s="239"/>
-      <c r="U109" s="239"/>
-      <c r="V109" s="240"/>
-    </row>
-    <row r="110" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="R109" s="176"/>
+      <c r="S109" s="177"/>
+      <c r="T109" s="177"/>
+      <c r="U109" s="177"/>
+      <c r="V109" s="178"/>
+    </row>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>10</v>
       </c>
@@ -8809,49 +8806,211 @@
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
       <c r="E110" s="23"/>
-      <c r="H110" s="227"/>
-      <c r="I110" s="227"/>
-      <c r="J110" s="227"/>
-      <c r="K110" s="227"/>
-      <c r="L110" s="227"/>
-      <c r="M110" s="227"/>
-      <c r="N110" s="227"/>
+      <c r="H110" s="216"/>
+      <c r="I110" s="216"/>
+      <c r="J110" s="216"/>
+      <c r="K110" s="216"/>
+      <c r="L110" s="216"/>
+      <c r="M110" s="216"/>
+      <c r="N110" s="216"/>
       <c r="O110" s="133"/>
       <c r="P110" s="46"/>
-      <c r="R110" s="238"/>
-      <c r="S110" s="239"/>
-      <c r="T110" s="239"/>
-      <c r="U110" s="239"/>
-      <c r="V110" s="240"/>
-    </row>
-    <row r="111" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="R110" s="176"/>
+      <c r="S110" s="177"/>
+      <c r="T110" s="177"/>
+      <c r="U110" s="177"/>
+      <c r="V110" s="178"/>
+    </row>
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="38"/>
       <c r="D111" s="38"/>
       <c r="E111" s="59"/>
-      <c r="H111" s="226" t="s">
+      <c r="H111" s="215" t="s">
         <v>99</v>
       </c>
-      <c r="I111" s="226"/>
-      <c r="J111" s="226"/>
-      <c r="K111" s="226"/>
-      <c r="L111" s="226"/>
-      <c r="M111" s="226"/>
-      <c r="N111" s="226"/>
+      <c r="I111" s="215"/>
+      <c r="J111" s="215"/>
+      <c r="K111" s="215"/>
+      <c r="L111" s="215"/>
+      <c r="M111" s="215"/>
+      <c r="N111" s="215"/>
       <c r="O111" s="132"/>
       <c r="P111" s="26">
         <f>SUM(P106:P110)</f>
         <v>411773.5166666666</v>
       </c>
-      <c r="R111" s="238"/>
-      <c r="S111" s="239"/>
-      <c r="T111" s="239"/>
-      <c r="U111" s="239"/>
-      <c r="V111" s="240"/>
+      <c r="R111" s="176"/>
+      <c r="S111" s="177"/>
+      <c r="T111" s="177"/>
+      <c r="U111" s="177"/>
+      <c r="V111" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="186">
+    <mergeCell ref="Z86:Z88"/>
+    <mergeCell ref="AA86:AA88"/>
+    <mergeCell ref="AB86:AB88"/>
+    <mergeCell ref="AC86:AC88"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="X38:X39"/>
+    <mergeCell ref="W38:W39"/>
+    <mergeCell ref="V38:V39"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="W86:W88"/>
+    <mergeCell ref="X86:X88"/>
+    <mergeCell ref="Y86:Y88"/>
+    <mergeCell ref="Y53:Y54"/>
+    <mergeCell ref="Y38:Y39"/>
+    <mergeCell ref="Z38:Z39"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="Y22:Y23"/>
+    <mergeCell ref="Z22:Z23"/>
+    <mergeCell ref="AC14:AC15"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="J59:J61"/>
+    <mergeCell ref="K59:K61"/>
+    <mergeCell ref="L59:L61"/>
+    <mergeCell ref="J86:J88"/>
+    <mergeCell ref="K86:K88"/>
+    <mergeCell ref="L86:L88"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="AC27:AC28"/>
+    <mergeCell ref="AB27:AB28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="AB24:AB25"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="AC18:AC19"/>
+    <mergeCell ref="AB18:AB19"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="AA27:AA28"/>
+    <mergeCell ref="Y18:Y19"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="Z14:Z15"/>
+    <mergeCell ref="M59:M61"/>
+    <mergeCell ref="N59:N61"/>
+    <mergeCell ref="O59:O61"/>
+    <mergeCell ref="P59:P61"/>
+    <mergeCell ref="AC71:AC72"/>
+    <mergeCell ref="AB59:AB61"/>
+    <mergeCell ref="AC59:AC61"/>
+    <mergeCell ref="A15:S15"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="A19:S19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="A23:S23"/>
+    <mergeCell ref="X53:X54"/>
+    <mergeCell ref="W53:W54"/>
+    <mergeCell ref="V53:V54"/>
+    <mergeCell ref="U53:U54"/>
+    <mergeCell ref="A39:S39"/>
+    <mergeCell ref="AC38:AC39"/>
+    <mergeCell ref="AB38:AB39"/>
+    <mergeCell ref="AA53:AA54"/>
+    <mergeCell ref="AA71:AA72"/>
+    <mergeCell ref="AC53:AC54"/>
+    <mergeCell ref="T2:U5"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="AC6:AC8"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="X6:X8"/>
+    <mergeCell ref="AA6:AA8"/>
+    <mergeCell ref="AB6:AB8"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="Y6:Y8"/>
+    <mergeCell ref="Z6:Z8"/>
+    <mergeCell ref="A2:E5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="H86:H88"/>
+    <mergeCell ref="G86:G88"/>
+    <mergeCell ref="M86:M88"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="F86:F88"/>
+    <mergeCell ref="I86:I88"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="H2:Q5"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="Q59:Q61"/>
+    <mergeCell ref="A54:S54"/>
+    <mergeCell ref="S2:S5"/>
+    <mergeCell ref="N86:N88"/>
+    <mergeCell ref="H111:N111"/>
+    <mergeCell ref="H103:N103"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="H110:N110"/>
+    <mergeCell ref="H107:N107"/>
+    <mergeCell ref="H109:N109"/>
+    <mergeCell ref="H108:N108"/>
+    <mergeCell ref="H106:N106"/>
+    <mergeCell ref="H101:N101"/>
+    <mergeCell ref="H102:N102"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="O86:O88"/>
+    <mergeCell ref="AC22:AC23"/>
+    <mergeCell ref="AB22:AB23"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="A25:S25"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="A28:S28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="A72:S72"/>
+    <mergeCell ref="U71:U72"/>
+    <mergeCell ref="V71:V72"/>
+    <mergeCell ref="AB71:AB72"/>
+    <mergeCell ref="Q86:Q88"/>
+    <mergeCell ref="R86:R88"/>
+    <mergeCell ref="P86:P88"/>
+    <mergeCell ref="U86:U88"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="F59:F61"/>
     <mergeCell ref="AB53:AB54"/>
     <mergeCell ref="AA38:AA39"/>
     <mergeCell ref="R111:V111"/>
@@ -8876,168 +9035,6 @@
     <mergeCell ref="Z71:Z72"/>
     <mergeCell ref="Y71:Y72"/>
     <mergeCell ref="Z53:Z54"/>
-    <mergeCell ref="O86:O88"/>
-    <mergeCell ref="AC22:AC23"/>
-    <mergeCell ref="AB22:AB23"/>
-    <mergeCell ref="X22:X23"/>
-    <mergeCell ref="W22:W23"/>
-    <mergeCell ref="V22:V23"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="A25:S25"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="A28:S28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="A72:S72"/>
-    <mergeCell ref="U71:U72"/>
-    <mergeCell ref="V71:V72"/>
-    <mergeCell ref="AB71:AB72"/>
-    <mergeCell ref="Q86:Q88"/>
-    <mergeCell ref="R86:R88"/>
-    <mergeCell ref="P86:P88"/>
-    <mergeCell ref="U86:U88"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="H111:N111"/>
-    <mergeCell ref="H103:N103"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="H110:N110"/>
-    <mergeCell ref="H107:N107"/>
-    <mergeCell ref="H109:N109"/>
-    <mergeCell ref="H108:N108"/>
-    <mergeCell ref="H106:N106"/>
-    <mergeCell ref="H101:N101"/>
-    <mergeCell ref="H102:N102"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="A2:E5"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="H86:H88"/>
-    <mergeCell ref="G86:G88"/>
-    <mergeCell ref="M86:M88"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="F86:F88"/>
-    <mergeCell ref="I86:I88"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="H2:Q5"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="Q59:Q61"/>
-    <mergeCell ref="A54:S54"/>
-    <mergeCell ref="S2:S5"/>
-    <mergeCell ref="N86:N88"/>
-    <mergeCell ref="T2:U5"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="T6:T8"/>
-    <mergeCell ref="S6:S8"/>
-    <mergeCell ref="Q6:Q8"/>
-    <mergeCell ref="R6:R8"/>
-    <mergeCell ref="AC6:AC8"/>
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="X6:X8"/>
-    <mergeCell ref="AA6:AA8"/>
-    <mergeCell ref="AB6:AB8"/>
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="U6:U8"/>
-    <mergeCell ref="Y6:Y8"/>
-    <mergeCell ref="Z6:Z8"/>
-    <mergeCell ref="M59:M61"/>
-    <mergeCell ref="N59:N61"/>
-    <mergeCell ref="O59:O61"/>
-    <mergeCell ref="P59:P61"/>
-    <mergeCell ref="AC71:AC72"/>
-    <mergeCell ref="AB59:AB61"/>
-    <mergeCell ref="AC59:AC61"/>
-    <mergeCell ref="A15:S15"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="A19:S19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="A23:S23"/>
-    <mergeCell ref="X53:X54"/>
-    <mergeCell ref="W53:W54"/>
-    <mergeCell ref="V53:V54"/>
-    <mergeCell ref="U53:U54"/>
-    <mergeCell ref="A39:S39"/>
-    <mergeCell ref="AC38:AC39"/>
-    <mergeCell ref="AB38:AB39"/>
-    <mergeCell ref="AA53:AA54"/>
-    <mergeCell ref="AA71:AA72"/>
-    <mergeCell ref="AC53:AC54"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="AB27:AB28"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="AB24:AB25"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="AC18:AC19"/>
-    <mergeCell ref="AB18:AB19"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="AA14:AA15"/>
-    <mergeCell ref="AA18:AA19"/>
-    <mergeCell ref="AA22:AA23"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="AA27:AA28"/>
-    <mergeCell ref="Y18:Y19"/>
-    <mergeCell ref="Z18:Z19"/>
-    <mergeCell ref="Z14:Z15"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="J59:J61"/>
-    <mergeCell ref="K59:K61"/>
-    <mergeCell ref="L59:L61"/>
-    <mergeCell ref="J86:J88"/>
-    <mergeCell ref="K86:K88"/>
-    <mergeCell ref="L86:L88"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="I59:I61"/>
-    <mergeCell ref="Z86:Z88"/>
-    <mergeCell ref="AA86:AA88"/>
-    <mergeCell ref="AB86:AB88"/>
-    <mergeCell ref="AC86:AC88"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="X38:X39"/>
-    <mergeCell ref="W38:W39"/>
-    <mergeCell ref="V38:V39"/>
-    <mergeCell ref="U38:U39"/>
-    <mergeCell ref="W86:W88"/>
-    <mergeCell ref="X86:X88"/>
-    <mergeCell ref="Y86:Y88"/>
-    <mergeCell ref="Y53:Y54"/>
-    <mergeCell ref="Y38:Y39"/>
-    <mergeCell ref="Z38:Z39"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="Z27:Z28"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="Y22:Y23"/>
-    <mergeCell ref="Z22:Z23"/>
-    <mergeCell ref="AC14:AC15"/>
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="X14:X15"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9059,58 +9056,58 @@
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="3" customWidth="1"/>
-    <col min="4" max="4" width="1.85546875" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="1.88671875" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="4" customWidth="1"/>
     <col min="9" max="9" width="10" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="68" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" style="68" customWidth="1"/>
     <col min="11" max="11" width="7" style="3" customWidth="1"/>
     <col min="12" max="12" width="10" style="3" customWidth="1"/>
     <col min="13" max="13" width="14" style="4" customWidth="1"/>
     <col min="14" max="15" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" style="4" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="4" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="27.42578125" style="90" customWidth="1"/>
+    <col min="17" max="17" width="14.88671875" style="4" customWidth="1"/>
+    <col min="18" max="18" width="12.88671875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="27.44140625" style="90" customWidth="1"/>
     <col min="20" max="20" width="13" style="91" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" style="91" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="92" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" style="91" customWidth="1"/>
-    <col min="24" max="24" width="31.85546875" style="91" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="5"/>
+    <col min="21" max="21" width="10.5546875" style="91" customWidth="1"/>
+    <col min="22" max="22" width="12.5546875" style="92" customWidth="1"/>
+    <col min="23" max="23" width="10.5546875" style="91" customWidth="1"/>
+    <col min="24" max="24" width="31.88671875" style="91" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:24" s="30" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="214" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="H2" s="224" t="s">
+    <row r="1" spans="2:24" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:24" s="30" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="223" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="H2" s="232" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="M2" s="224"/>
-      <c r="N2" s="224"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
       <c r="O2" s="31"/>
-      <c r="P2" s="225" t="s">
+      <c r="P2" s="233" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="210"/>
-      <c r="R2" s="210"/>
+      <c r="Q2" s="234"/>
+      <c r="R2" s="234"/>
       <c r="S2" s="93"/>
       <c r="T2" s="30" t="s">
         <v>3</v>
@@ -9126,22 +9123,22 @@
       </c>
       <c r="X2" s="96"/>
     </row>
-    <row r="3" spans="2:24" s="30" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="214"/>
-      <c r="C3" s="214"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="214"/>
-      <c r="H3" s="224"/>
-      <c r="I3" s="224"/>
-      <c r="J3" s="224"/>
-      <c r="K3" s="224"/>
-      <c r="L3" s="224"/>
-      <c r="M3" s="224"/>
-      <c r="N3" s="224"/>
+    <row r="3" spans="2:24" s="30" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="223"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="223"/>
+      <c r="H3" s="232"/>
+      <c r="I3" s="232"/>
+      <c r="J3" s="232"/>
+      <c r="K3" s="232"/>
+      <c r="L3" s="232"/>
+      <c r="M3" s="232"/>
+      <c r="N3" s="232"/>
       <c r="O3" s="31"/>
-      <c r="P3" s="225"/>
-      <c r="Q3" s="210"/>
-      <c r="R3" s="210"/>
+      <c r="P3" s="233"/>
+      <c r="Q3" s="234"/>
+      <c r="R3" s="234"/>
       <c r="S3" s="93"/>
       <c r="T3" s="30" t="s">
         <v>4</v>
@@ -9153,22 +9150,22 @@
       <c r="W3" s="97"/>
       <c r="X3" s="96"/>
     </row>
-    <row r="4" spans="2:24" s="30" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="214"/>
-      <c r="C4" s="214"/>
-      <c r="D4" s="214"/>
-      <c r="E4" s="214"/>
-      <c r="H4" s="224"/>
-      <c r="I4" s="224"/>
-      <c r="J4" s="224"/>
-      <c r="K4" s="224"/>
-      <c r="L4" s="224"/>
-      <c r="M4" s="224"/>
-      <c r="N4" s="224"/>
+    <row r="4" spans="2:24" s="30" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="223"/>
+      <c r="C4" s="223"/>
+      <c r="D4" s="223"/>
+      <c r="E4" s="223"/>
+      <c r="H4" s="232"/>
+      <c r="I4" s="232"/>
+      <c r="J4" s="232"/>
+      <c r="K4" s="232"/>
+      <c r="L4" s="232"/>
+      <c r="M4" s="232"/>
+      <c r="N4" s="232"/>
       <c r="O4" s="31"/>
-      <c r="P4" s="225"/>
-      <c r="Q4" s="210"/>
-      <c r="R4" s="210"/>
+      <c r="P4" s="233"/>
+      <c r="Q4" s="234"/>
+      <c r="R4" s="234"/>
       <c r="S4" s="93"/>
       <c r="T4" s="30" t="s">
         <v>5</v>
@@ -9179,43 +9176,43 @@
       <c r="W4" s="97"/>
       <c r="X4" s="96"/>
     </row>
-    <row r="5" spans="2:24" s="30" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="214"/>
-      <c r="C5" s="214"/>
-      <c r="D5" s="214"/>
-      <c r="E5" s="214"/>
-      <c r="H5" s="224"/>
-      <c r="I5" s="224"/>
-      <c r="J5" s="224"/>
-      <c r="K5" s="224"/>
-      <c r="L5" s="224"/>
-      <c r="M5" s="224"/>
-      <c r="N5" s="224"/>
+    <row r="5" spans="2:24" s="30" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="223"/>
+      <c r="C5" s="223"/>
+      <c r="D5" s="223"/>
+      <c r="E5" s="223"/>
+      <c r="H5" s="232"/>
+      <c r="I5" s="232"/>
+      <c r="J5" s="232"/>
+      <c r="K5" s="232"/>
+      <c r="L5" s="232"/>
+      <c r="M5" s="232"/>
+      <c r="N5" s="232"/>
       <c r="O5" s="31"/>
-      <c r="P5" s="225"/>
-      <c r="Q5" s="210"/>
-      <c r="R5" s="210"/>
+      <c r="P5" s="233"/>
+      <c r="Q5" s="234"/>
+      <c r="R5" s="234"/>
       <c r="S5" s="93"/>
       <c r="U5" s="80"/>
       <c r="W5" s="97"/>
       <c r="X5" s="96"/>
     </row>
-    <row r="6" spans="2:24" s="30" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="214"/>
-      <c r="C6" s="214"/>
-      <c r="D6" s="214"/>
-      <c r="E6" s="214"/>
-      <c r="H6" s="224"/>
-      <c r="I6" s="224"/>
-      <c r="J6" s="224"/>
-      <c r="K6" s="224"/>
-      <c r="L6" s="224"/>
-      <c r="M6" s="224"/>
-      <c r="N6" s="224"/>
+    <row r="6" spans="2:24" s="30" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="223"/>
+      <c r="C6" s="223"/>
+      <c r="D6" s="223"/>
+      <c r="E6" s="223"/>
+      <c r="H6" s="232"/>
+      <c r="I6" s="232"/>
+      <c r="J6" s="232"/>
+      <c r="K6" s="232"/>
+      <c r="L6" s="232"/>
+      <c r="M6" s="232"/>
+      <c r="N6" s="232"/>
       <c r="O6" s="31"/>
-      <c r="P6" s="225"/>
-      <c r="Q6" s="210"/>
-      <c r="R6" s="210"/>
+      <c r="P6" s="233"/>
+      <c r="Q6" s="234"/>
+      <c r="R6" s="234"/>
       <c r="S6" s="93"/>
       <c r="U6" s="84"/>
       <c r="V6" s="79" t="s">
@@ -9228,58 +9225,58 @@
       <c r="X6" s="99"/>
     </row>
     <row r="7" spans="2:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="192" t="s">
+      <c r="B7" s="182" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="213" t="s">
+      <c r="D7" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="216" t="s">
+      <c r="E7" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="192" t="s">
+      <c r="F7" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="195" t="s">
+      <c r="G7" s="180" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="195" t="s">
+      <c r="H7" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="193" t="s">
+      <c r="I7" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="201" t="s">
+      <c r="J7" s="224" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="193" t="s">
+      <c r="K7" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="193" t="s">
+      <c r="L7" s="197" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="202" t="s">
+      <c r="M7" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="202" t="s">
+      <c r="N7" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="202" t="s">
+      <c r="O7" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="195" t="s">
+      <c r="P7" s="180" t="s">
         <v>101</v>
       </c>
-      <c r="Q7" s="202" t="s">
+      <c r="Q7" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="192" t="s">
+      <c r="R7" s="182" t="s">
         <v>22</v>
       </c>
-      <c r="S7" s="261" t="s">
+      <c r="S7" s="258" t="s">
         <v>23</v>
       </c>
       <c r="T7" s="249" t="s">
@@ -9288,7 +9285,7 @@
       <c r="U7" s="249" t="s">
         <v>25</v>
       </c>
-      <c r="V7" s="252" t="s">
+      <c r="V7" s="246" t="s">
         <v>26</v>
       </c>
       <c r="W7" s="249" t="s">
@@ -9299,58 +9296,58 @@
       </c>
     </row>
     <row r="8" spans="2:24" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="192"/>
+      <c r="B8" s="182"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="218"/>
-      <c r="E8" s="216"/>
-      <c r="F8" s="192"/>
-      <c r="G8" s="195"/>
-      <c r="H8" s="195"/>
-      <c r="I8" s="193"/>
-      <c r="J8" s="201"/>
-      <c r="K8" s="193"/>
-      <c r="L8" s="193"/>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
-      <c r="O8" s="202"/>
-      <c r="P8" s="195"/>
-      <c r="Q8" s="202"/>
-      <c r="R8" s="192"/>
-      <c r="S8" s="261"/>
+      <c r="D8" s="212"/>
+      <c r="E8" s="214"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="180"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="197"/>
+      <c r="J8" s="224"/>
+      <c r="K8" s="197"/>
+      <c r="L8" s="197"/>
+      <c r="M8" s="179"/>
+      <c r="N8" s="179"/>
+      <c r="O8" s="179"/>
+      <c r="P8" s="180"/>
+      <c r="Q8" s="179"/>
+      <c r="R8" s="182"/>
+      <c r="S8" s="258"/>
       <c r="T8" s="250"/>
       <c r="U8" s="250"/>
-      <c r="V8" s="253"/>
+      <c r="V8" s="247"/>
       <c r="W8" s="250"/>
       <c r="X8" s="250"/>
     </row>
-    <row r="9" spans="2:24" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="192"/>
+    <row r="9" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="182"/>
       <c r="C9" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="219"/>
-      <c r="E9" s="216"/>
-      <c r="F9" s="192"/>
-      <c r="G9" s="195"/>
-      <c r="H9" s="195"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="201"/>
-      <c r="K9" s="193"/>
-      <c r="L9" s="193"/>
-      <c r="M9" s="202"/>
-      <c r="N9" s="202"/>
-      <c r="O9" s="202"/>
-      <c r="P9" s="195"/>
-      <c r="Q9" s="202"/>
-      <c r="R9" s="192"/>
-      <c r="S9" s="261"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="214"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="180"/>
+      <c r="H9" s="180"/>
+      <c r="I9" s="197"/>
+      <c r="J9" s="224"/>
+      <c r="K9" s="197"/>
+      <c r="L9" s="197"/>
+      <c r="M9" s="179"/>
+      <c r="N9" s="179"/>
+      <c r="O9" s="179"/>
+      <c r="P9" s="180"/>
+      <c r="Q9" s="179"/>
+      <c r="R9" s="182"/>
+      <c r="S9" s="258"/>
       <c r="T9" s="251"/>
       <c r="U9" s="251"/>
-      <c r="V9" s="254"/>
+      <c r="V9" s="248"/>
       <c r="W9" s="251"/>
       <c r="X9" s="251"/>
     </row>
-    <row r="10" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -9367,53 +9364,53 @@
       <c r="O10" s="7"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
-      <c r="R10" s="208"/>
-      <c r="S10" s="255"/>
-      <c r="T10" s="257">
+      <c r="R10" s="238"/>
+      <c r="S10" s="252"/>
+      <c r="T10" s="254">
         <f t="shared" ref="T10" si="0">Q10+O10+N10+M10</f>
         <v>0</v>
       </c>
-      <c r="U10" s="206">
+      <c r="U10" s="236">
         <f t="shared" ref="U10" si="1">E10*8.75</f>
         <v>0</v>
       </c>
-      <c r="V10" s="259">
+      <c r="V10" s="256">
         <v>10</v>
       </c>
-      <c r="W10" s="257">
+      <c r="W10" s="254">
         <v>8.75</v>
       </c>
-      <c r="X10" s="186">
+      <c r="X10" s="198">
         <f t="shared" ref="X10" si="2">C10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="B11" s="203"/>
-      <c r="C11" s="204"/>
-      <c r="D11" s="204"/>
-      <c r="E11" s="204"/>
-      <c r="F11" s="204"/>
-      <c r="G11" s="204"/>
-      <c r="H11" s="204"/>
-      <c r="I11" s="204"/>
-      <c r="J11" s="204"/>
-      <c r="K11" s="204"/>
-      <c r="L11" s="204"/>
-      <c r="M11" s="204"/>
-      <c r="N11" s="204"/>
-      <c r="O11" s="204"/>
-      <c r="P11" s="205"/>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="206"/>
+      <c r="C11" s="207"/>
+      <c r="D11" s="207"/>
+      <c r="E11" s="207"/>
+      <c r="F11" s="207"/>
+      <c r="G11" s="207"/>
+      <c r="H11" s="207"/>
+      <c r="I11" s="207"/>
+      <c r="J11" s="207"/>
+      <c r="K11" s="207"/>
+      <c r="L11" s="207"/>
+      <c r="M11" s="207"/>
+      <c r="N11" s="207"/>
+      <c r="O11" s="207"/>
+      <c r="P11" s="208"/>
       <c r="Q11" s="16"/>
-      <c r="R11" s="209"/>
-      <c r="S11" s="256"/>
-      <c r="T11" s="258"/>
-      <c r="U11" s="207"/>
-      <c r="V11" s="260"/>
-      <c r="W11" s="258"/>
-      <c r="X11" s="187"/>
-    </row>
-    <row r="12" spans="2:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="R11" s="239"/>
+      <c r="S11" s="253"/>
+      <c r="T11" s="255"/>
+      <c r="U11" s="237"/>
+      <c r="V11" s="257"/>
+      <c r="W11" s="255"/>
+      <c r="X11" s="199"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
       <c r="D12" s="85"/>
@@ -9437,7 +9434,7 @@
       <c r="W12" s="102"/>
       <c r="X12" s="89"/>
     </row>
-    <row r="13" spans="2:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
       <c r="D13" s="85"/>
@@ -9461,11 +9458,11 @@
       <c r="W13" s="102"/>
       <c r="X13" s="89"/>
     </row>
-    <row r="14" spans="2:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="B14" s="246" t="s">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B14" s="259" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="246"/>
+      <c r="C14" s="259"/>
       <c r="D14" s="85"/>
       <c r="E14" s="85"/>
       <c r="F14" s="85"/>
@@ -9487,7 +9484,7 @@
       <c r="W14" s="102"/>
       <c r="X14" s="89"/>
     </row>
-    <row r="15" spans="2:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" s="51" t="s">
         <v>103</v>
       </c>
@@ -9513,7 +9510,7 @@
       <c r="W15" s="102"/>
       <c r="X15" s="89"/>
     </row>
-    <row r="16" spans="2:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>104</v>
       </c>
@@ -9539,7 +9536,7 @@
       <c r="W16" s="102"/>
       <c r="X16" s="89"/>
     </row>
-    <row r="17" spans="2:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>105</v>
       </c>
@@ -9565,7 +9562,7 @@
       <c r="W17" s="102"/>
       <c r="X17" s="89"/>
     </row>
-    <row r="18" spans="2:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>106</v>
       </c>
@@ -9591,7 +9588,7 @@
       <c r="W18" s="102"/>
       <c r="X18" s="89"/>
     </row>
-    <row r="19" spans="2:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>107</v>
       </c>
@@ -9617,7 +9614,7 @@
       <c r="W19" s="102"/>
       <c r="X19" s="89"/>
     </row>
-    <row r="20" spans="2:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>108</v>
       </c>
@@ -9643,7 +9640,7 @@
       <c r="W20" s="102"/>
       <c r="X20" s="89"/>
     </row>
-    <row r="21" spans="2:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>109</v>
       </c>
@@ -9669,7 +9666,7 @@
       <c r="W21" s="102"/>
       <c r="X21" s="89"/>
     </row>
-    <row r="22" spans="2:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -9693,7 +9690,7 @@
       <c r="W22" s="102"/>
       <c r="X22" s="89"/>
     </row>
-    <row r="23" spans="2:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="I23" s="85"/>
       <c r="J23" s="85"/>
       <c r="K23" s="85"/>
@@ -9710,7 +9707,7 @@
       <c r="W23" s="102"/>
       <c r="X23" s="89"/>
     </row>
-    <row r="24" spans="2:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="I24" s="85"/>
       <c r="J24" s="85"/>
       <c r="K24" s="85"/>
@@ -9727,11 +9724,11 @@
       <c r="W24" s="102"/>
       <c r="X24" s="89"/>
     </row>
-    <row r="25" spans="2:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="B25" s="246" t="s">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B25" s="259" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="246"/>
+      <c r="C25" s="259"/>
       <c r="D25" s="85"/>
       <c r="E25" s="85"/>
       <c r="F25" s="85"/>
@@ -9753,7 +9750,7 @@
       <c r="W25" s="102"/>
       <c r="X25" s="89"/>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>103</v>
       </c>
@@ -9766,7 +9763,7 @@
       <c r="I26" s="112"/>
       <c r="L26" s="113"/>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>104</v>
       </c>
@@ -9779,7 +9776,7 @@
       <c r="I27" s="112"/>
       <c r="L27" s="113"/>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>105</v>
       </c>
@@ -9792,7 +9789,7 @@
       <c r="I28" s="112"/>
       <c r="L28" s="113"/>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>106</v>
       </c>
@@ -9805,7 +9802,7 @@
       <c r="I29" s="112"/>
       <c r="L29" s="113"/>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>107</v>
       </c>
@@ -9818,7 +9815,7 @@
       <c r="I30" s="112"/>
       <c r="L30" s="113"/>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
         <v>108</v>
       </c>
@@ -9830,7 +9827,7 @@
       <c r="H31" s="137"/>
       <c r="I31" s="112"/>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>109</v>
       </c>
@@ -9842,7 +9839,7 @@
       <c r="H32" s="137"/>
       <c r="I32" s="112"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -9850,21 +9847,43 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="137"/>
-      <c r="I33" s="247"/>
-      <c r="J33" s="248"/>
-      <c r="K33" s="248"/>
+      <c r="I33" s="260"/>
+      <c r="J33" s="261"/>
+      <c r="K33" s="261"/>
       <c r="L33" s="115"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B11:P11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="U7:U9"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="Q7:Q9"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="V7:V9"/>
+    <mergeCell ref="W7:W9"/>
+    <mergeCell ref="X7:X9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="T7:T9"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="S7:S9"/>
     <mergeCell ref="B2:E6"/>
     <mergeCell ref="H2:N6"/>
     <mergeCell ref="P2:P6"/>
@@ -9880,28 +9899,6 @@
     <mergeCell ref="K7:K9"/>
     <mergeCell ref="L7:L9"/>
     <mergeCell ref="M7:M9"/>
-    <mergeCell ref="V7:V9"/>
-    <mergeCell ref="W7:W9"/>
-    <mergeCell ref="X7:X9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="T7:T9"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="B11:P11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="U7:U9"/>
-    <mergeCell ref="O7:O9"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="Q7:Q9"/>
-    <mergeCell ref="N7:N9"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -9916,94 +9913,94 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="4" customWidth="1"/>
     <col min="11" max="11" width="12" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.42578125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="43" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="10"/>
-    <col min="18" max="16384" width="8.85546875" style="5"/>
+    <col min="12" max="12" width="14.88671875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.44140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="10"/>
+    <col min="18" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="214" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="214"/>
-      <c r="F2" s="214" t="s">
+    <row r="1" spans="2:19" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:19" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="223" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="223"/>
+      <c r="F2" s="223" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="214"/>
-      <c r="H2" s="214"/>
-      <c r="I2" s="214"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="223"/>
       <c r="J2" s="31"/>
-      <c r="K2" s="225" t="s">
+      <c r="K2" s="233" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="262" t="str">
-        <f>OCC!T2</f>
+      <c r="L2" s="266" t="str">
+        <f>'A. JHB 30 JAN 26'!T2</f>
         <v>30/01/2026</v>
       </c>
-      <c r="M2" s="262"/>
+      <c r="M2" s="266"/>
       <c r="N2" s="139"/>
       <c r="O2" s="44"/>
       <c r="Q2" s="42"/>
     </row>
-    <row r="3" spans="2:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="214"/>
-      <c r="C3" s="214"/>
-      <c r="F3" s="214"/>
-      <c r="G3" s="214"/>
-      <c r="H3" s="214"/>
-      <c r="I3" s="214"/>
+    <row r="3" spans="2:19" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="223"/>
+      <c r="C3" s="223"/>
+      <c r="F3" s="223"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
       <c r="J3" s="31"/>
-      <c r="K3" s="225"/>
-      <c r="L3" s="262"/>
-      <c r="M3" s="262"/>
+      <c r="K3" s="233"/>
+      <c r="L3" s="266"/>
+      <c r="M3" s="266"/>
       <c r="N3" s="139"/>
       <c r="O3" s="44"/>
       <c r="Q3" s="42"/>
     </row>
-    <row r="4" spans="2:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="214"/>
-      <c r="C4" s="214"/>
-      <c r="F4" s="214"/>
-      <c r="G4" s="214"/>
-      <c r="H4" s="214"/>
-      <c r="I4" s="214"/>
+    <row r="4" spans="2:19" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B4" s="223"/>
+      <c r="C4" s="223"/>
+      <c r="F4" s="223"/>
+      <c r="G4" s="223"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
       <c r="J4" s="31"/>
-      <c r="K4" s="225"/>
-      <c r="L4" s="262"/>
-      <c r="M4" s="262"/>
+      <c r="K4" s="233"/>
+      <c r="L4" s="266"/>
+      <c r="M4" s="266"/>
       <c r="N4" s="139"/>
       <c r="O4" s="44"/>
       <c r="Q4" s="42"/>
     </row>
-    <row r="5" spans="2:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="214"/>
-      <c r="C5" s="214"/>
-      <c r="F5" s="214"/>
-      <c r="G5" s="214"/>
-      <c r="H5" s="214"/>
-      <c r="I5" s="214"/>
+    <row r="5" spans="2:19" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="223"/>
+      <c r="C5" s="223"/>
+      <c r="F5" s="223"/>
+      <c r="G5" s="223"/>
+      <c r="H5" s="223"/>
+      <c r="I5" s="223"/>
       <c r="J5" s="31"/>
-      <c r="K5" s="225"/>
-      <c r="L5" s="262"/>
-      <c r="M5" s="262"/>
+      <c r="K5" s="233"/>
+      <c r="L5" s="266"/>
+      <c r="M5" s="266"/>
       <c r="N5" s="139"/>
       <c r="O5" s="44"/>
       <c r="P5" s="30" t="s">
@@ -10018,22 +10015,22 @@
       </c>
       <c r="S5" s="47"/>
     </row>
-    <row r="6" spans="2:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="214"/>
-      <c r="C6" s="214"/>
-      <c r="F6" s="214"/>
-      <c r="G6" s="214"/>
-      <c r="H6" s="214"/>
-      <c r="I6" s="214"/>
+    <row r="6" spans="2:19" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B6" s="223"/>
+      <c r="C6" s="223"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="223"/>
+      <c r="H6" s="223"/>
+      <c r="I6" s="223"/>
       <c r="J6" s="31"/>
-      <c r="K6" s="225"/>
-      <c r="L6" s="262"/>
-      <c r="M6" s="262"/>
+      <c r="K6" s="233"/>
+      <c r="L6" s="266"/>
+      <c r="M6" s="266"/>
       <c r="N6" s="139"/>
       <c r="O6" s="44"/>
       <c r="Q6" s="42"/>
     </row>
-    <row r="7" spans="2:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B7" s="130"/>
       <c r="C7" s="130"/>
       <c r="F7" s="130"/>
@@ -10053,82 +10050,82 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="192" t="s">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="182" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="263" t="s">
+      <c r="D8" s="267" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="192" t="s">
+      <c r="E8" s="182" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="202" t="s">
+      <c r="F8" s="179" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="192" t="s">
+      <c r="G8" s="182" t="s">
         <v>117</v>
       </c>
-      <c r="H8" s="202" t="s">
+      <c r="H8" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="202" t="s">
+      <c r="I8" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="202" t="s">
+      <c r="J8" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="202" t="s">
+      <c r="K8" s="179" t="s">
         <v>118</v>
       </c>
-      <c r="L8" s="202" t="s">
+      <c r="L8" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="192" t="s">
+      <c r="M8" s="182" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="192" t="s">
+      <c r="N8" s="182" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="192"/>
+      <c r="B9" s="182"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="263"/>
-      <c r="E9" s="192"/>
-      <c r="F9" s="202"/>
-      <c r="G9" s="192"/>
-      <c r="H9" s="202"/>
-      <c r="I9" s="202"/>
-      <c r="J9" s="202"/>
-      <c r="K9" s="202"/>
-      <c r="L9" s="202"/>
-      <c r="M9" s="192"/>
-      <c r="N9" s="192"/>
-    </row>
-    <row r="10" spans="2:19" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="192"/>
+      <c r="D9" s="267"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="182"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="179"/>
+      <c r="K9" s="179"/>
+      <c r="L9" s="179"/>
+      <c r="M9" s="182"/>
+      <c r="N9" s="182"/>
+    </row>
+    <row r="10" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="182"/>
       <c r="C10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="264"/>
-      <c r="E10" s="213"/>
-      <c r="F10" s="211"/>
-      <c r="G10" s="213"/>
-      <c r="H10" s="211"/>
-      <c r="I10" s="211"/>
-      <c r="J10" s="211"/>
-      <c r="K10" s="211"/>
-      <c r="L10" s="211"/>
-      <c r="M10" s="213"/>
-      <c r="N10" s="213"/>
+      <c r="D10" s="268"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="235"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="235"/>
+      <c r="I10" s="235"/>
+      <c r="J10" s="235"/>
+      <c r="K10" s="235"/>
+      <c r="L10" s="235"/>
+      <c r="M10" s="211"/>
+      <c r="N10" s="211"/>
       <c r="O10" s="45"/>
       <c r="Q10" s="38"/>
     </row>
-    <row r="11" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="50">
         <v>1</v>
       </c>
@@ -10163,7 +10160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>2</v>
       </c>
@@ -10184,7 +10181,7 @@
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7">
-        <f>OCC!X4</f>
+        <f>'A. JHB 30 JAN 26'!X4</f>
         <v>20</v>
       </c>
       <c r="K12" s="16"/>
@@ -10201,7 +10198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>3</v>
       </c>
@@ -10222,7 +10219,7 @@
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7">
-        <f>OCC!X4</f>
+        <f>'A. JHB 30 JAN 26'!X4</f>
         <v>20</v>
       </c>
       <c r="K13" s="16"/>
@@ -10239,7 +10236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="50">
         <v>4</v>
       </c>
@@ -10274,7 +10271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>5</v>
       </c>
@@ -10309,7 +10306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>6</v>
       </c>
@@ -10344,7 +10341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="50">
         <v>7</v>
       </c>
@@ -10379,7 +10376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>8</v>
       </c>
@@ -10400,7 +10397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
         <v>9</v>
       </c>
@@ -10421,7 +10418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="50">
         <v>10</v>
       </c>
@@ -10442,7 +10439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
         <v>11</v>
       </c>
@@ -10463,7 +10460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <v>12</v>
       </c>
@@ -10484,7 +10481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="50">
         <v>13</v>
       </c>
@@ -10526,7 +10523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="50">
         <v>16</v>
       </c>
@@ -10547,7 +10544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="6">
         <v>17</v>
       </c>
@@ -10568,7 +10565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="6">
         <v>18</v>
       </c>
@@ -10589,7 +10586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="50">
         <v>19</v>
       </c>
@@ -10610,7 +10607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="6">
         <v>20</v>
       </c>
@@ -10631,7 +10628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="6">
         <v>21</v>
       </c>
@@ -10652,7 +10649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="50">
         <v>22</v>
       </c>
@@ -10673,7 +10670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="6">
         <v>23</v>
       </c>
@@ -10694,7 +10691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B33" s="6">
         <v>24</v>
       </c>
@@ -10715,14 +10712,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B35" s="56"/>
       <c r="C35" s="56"/>
       <c r="D35" s="56"/>
-      <c r="F35" s="227" t="s">
+      <c r="F35" s="216" t="s">
         <v>126</v>
       </c>
-      <c r="G35" s="227"/>
+      <c r="G35" s="216"/>
       <c r="H35" s="7">
         <f t="shared" ref="H35:K35" si="3">SUM(H11:H34)</f>
         <v>0</v>
@@ -10746,7 +10743,7 @@
       <c r="M35" s="27"/>
       <c r="N35" s="27"/>
     </row>
-    <row r="36" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="57"/>
       <c r="D36" s="58"/>
@@ -10769,7 +10766,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="10"/>
       <c r="D37" s="58"/>
@@ -10782,16 +10779,16 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:19" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="1"/>
       <c r="C38" s="10"/>
       <c r="D38" s="58"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="230" t="s">
+      <c r="F38" s="219" t="s">
         <v>127</v>
       </c>
-      <c r="G38" s="230"/>
+      <c r="G38" s="219"/>
       <c r="H38" s="25">
         <v>0</v>
       </c>
@@ -10808,16 +10805,16 @@
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
     </row>
-    <row r="39" spans="1:19" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="1"/>
       <c r="C39" s="10"/>
       <c r="D39" s="5"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="230" t="s">
+      <c r="F39" s="219" t="s">
         <v>129</v>
       </c>
-      <c r="G39" s="230"/>
+      <c r="G39" s="219"/>
       <c r="H39" s="25">
         <f>L11+L14+L16+L18+L12</f>
         <v>-20</v>
@@ -10835,16 +10832,16 @@
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
     </row>
-    <row r="40" spans="1:19" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="38"/>
       <c r="D40" s="2"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="227" t="s">
+      <c r="F40" s="216" t="s">
         <v>130</v>
       </c>
-      <c r="G40" s="227"/>
+      <c r="G40" s="216"/>
       <c r="H40" s="25">
         <f>L13+L15+L17</f>
         <v>-20</v>
@@ -10862,14 +10859,14 @@
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
     </row>
-    <row r="41" spans="1:19" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="38"/>
       <c r="D41" s="59"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="227"/>
-      <c r="G41" s="227"/>
+      <c r="F41" s="216"/>
+      <c r="G41" s="216"/>
       <c r="H41" s="25"/>
       <c r="I41" s="11"/>
       <c r="J41" s="5"/>
@@ -10882,16 +10879,16 @@
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
     </row>
-    <row r="42" spans="1:19" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="38"/>
       <c r="D42" s="2"/>
       <c r="E42" s="5"/>
-      <c r="F42" s="227" t="s">
+      <c r="F42" s="216" t="s">
         <v>131</v>
       </c>
-      <c r="G42" s="227"/>
+      <c r="G42" s="216"/>
       <c r="H42" s="46">
         <f>H40</f>
         <v>-20</v>
@@ -10907,16 +10904,16 @@
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
     </row>
-    <row r="43" spans="1:19" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
       <c r="E43" s="5"/>
-      <c r="F43" s="226" t="s">
+      <c r="F43" s="215" t="s">
         <v>99</v>
       </c>
-      <c r="G43" s="226"/>
+      <c r="G43" s="215"/>
       <c r="H43" s="26">
         <f>H38+H39+H40</f>
         <v>-40</v>
@@ -10932,12 +10929,12 @@
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
     </row>
-    <row r="44" spans="1:19" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="268" t="s">
+      <c r="B44" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="268"/>
+      <c r="C44" s="265"/>
       <c r="D44" s="2"/>
       <c r="E44" s="3"/>
       <c r="F44" s="5"/>
@@ -10954,168 +10951,190 @@
       <c r="R44" s="5"/>
       <c r="S44" s="5"/>
     </row>
-    <row r="45" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
-      <c r="B45" s="265"/>
-      <c r="C45" s="266"/>
-      <c r="D45" s="266"/>
-      <c r="E45" s="266"/>
-      <c r="F45" s="266"/>
-      <c r="G45" s="266"/>
-      <c r="H45" s="266"/>
-      <c r="I45" s="266"/>
-      <c r="J45" s="266"/>
-      <c r="K45" s="266"/>
-      <c r="L45" s="266"/>
-      <c r="M45" s="266"/>
-      <c r="N45" s="267"/>
+      <c r="B45" s="262"/>
+      <c r="C45" s="263"/>
+      <c r="D45" s="263"/>
+      <c r="E45" s="263"/>
+      <c r="F45" s="263"/>
+      <c r="G45" s="263"/>
+      <c r="H45" s="263"/>
+      <c r="I45" s="263"/>
+      <c r="J45" s="263"/>
+      <c r="K45" s="263"/>
+      <c r="L45" s="263"/>
+      <c r="M45" s="263"/>
+      <c r="N45" s="264"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="5"/>
       <c r="S45" s="5"/>
     </row>
-    <row r="46" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
-      <c r="B46" s="265"/>
-      <c r="C46" s="266"/>
-      <c r="D46" s="266"/>
-      <c r="E46" s="266"/>
-      <c r="F46" s="266"/>
-      <c r="G46" s="266"/>
-      <c r="H46" s="266"/>
-      <c r="I46" s="266"/>
-      <c r="J46" s="266"/>
-      <c r="K46" s="266"/>
-      <c r="L46" s="266"/>
-      <c r="M46" s="266"/>
-      <c r="N46" s="267"/>
+      <c r="B46" s="262"/>
+      <c r="C46" s="263"/>
+      <c r="D46" s="263"/>
+      <c r="E46" s="263"/>
+      <c r="F46" s="263"/>
+      <c r="G46" s="263"/>
+      <c r="H46" s="263"/>
+      <c r="I46" s="263"/>
+      <c r="J46" s="263"/>
+      <c r="K46" s="263"/>
+      <c r="L46" s="263"/>
+      <c r="M46" s="263"/>
+      <c r="N46" s="264"/>
       <c r="P46" s="5"/>
       <c r="Q46" s="10"/>
       <c r="R46" s="5"/>
       <c r="S46" s="5"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B47" s="265"/>
-      <c r="C47" s="266"/>
-      <c r="D47" s="266"/>
-      <c r="E47" s="266"/>
-      <c r="F47" s="266"/>
-      <c r="G47" s="266"/>
-      <c r="H47" s="266"/>
-      <c r="I47" s="266"/>
-      <c r="J47" s="266"/>
-      <c r="K47" s="266"/>
-      <c r="L47" s="266"/>
-      <c r="M47" s="266"/>
-      <c r="N47" s="267"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B48" s="265"/>
-      <c r="C48" s="266"/>
-      <c r="D48" s="266"/>
-      <c r="E48" s="266"/>
-      <c r="F48" s="266"/>
-      <c r="G48" s="266"/>
-      <c r="H48" s="266"/>
-      <c r="I48" s="266"/>
-      <c r="J48" s="266"/>
-      <c r="K48" s="266"/>
-      <c r="L48" s="266"/>
-      <c r="M48" s="266"/>
-      <c r="N48" s="267"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B49" s="265"/>
-      <c r="C49" s="266"/>
-      <c r="D49" s="266"/>
-      <c r="E49" s="266"/>
-      <c r="F49" s="266"/>
-      <c r="G49" s="266"/>
-      <c r="H49" s="266"/>
-      <c r="I49" s="266"/>
-      <c r="J49" s="266"/>
-      <c r="K49" s="266"/>
-      <c r="L49" s="266"/>
-      <c r="M49" s="266"/>
-      <c r="N49" s="267"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B50" s="265"/>
-      <c r="C50" s="266"/>
-      <c r="D50" s="266"/>
-      <c r="E50" s="266"/>
-      <c r="F50" s="266"/>
-      <c r="G50" s="266"/>
-      <c r="H50" s="266"/>
-      <c r="I50" s="266"/>
-      <c r="J50" s="266"/>
-      <c r="K50" s="266"/>
-      <c r="L50" s="266"/>
-      <c r="M50" s="266"/>
-      <c r="N50" s="267"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B51" s="265"/>
-      <c r="C51" s="266"/>
-      <c r="D51" s="266"/>
-      <c r="E51" s="266"/>
-      <c r="F51" s="266"/>
-      <c r="G51" s="266"/>
-      <c r="H51" s="266"/>
-      <c r="I51" s="266"/>
-      <c r="J51" s="266"/>
-      <c r="K51" s="266"/>
-      <c r="L51" s="266"/>
-      <c r="M51" s="266"/>
-      <c r="N51" s="267"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B52" s="265"/>
-      <c r="C52" s="266"/>
-      <c r="D52" s="266"/>
-      <c r="E52" s="266"/>
-      <c r="F52" s="266"/>
-      <c r="G52" s="266"/>
-      <c r="H52" s="266"/>
-      <c r="I52" s="266"/>
-      <c r="J52" s="266"/>
-      <c r="K52" s="266"/>
-      <c r="L52" s="266"/>
-      <c r="M52" s="266"/>
-      <c r="N52" s="267"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B53" s="265"/>
-      <c r="C53" s="266"/>
-      <c r="D53" s="266"/>
-      <c r="E53" s="266"/>
-      <c r="F53" s="266"/>
-      <c r="G53" s="266"/>
-      <c r="H53" s="266"/>
-      <c r="I53" s="266"/>
-      <c r="J53" s="266"/>
-      <c r="K53" s="266"/>
-      <c r="L53" s="266"/>
-      <c r="M53" s="266"/>
-      <c r="N53" s="267"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B54" s="265"/>
-      <c r="C54" s="266"/>
-      <c r="D54" s="266"/>
-      <c r="E54" s="266"/>
-      <c r="F54" s="266"/>
-      <c r="G54" s="266"/>
-      <c r="H54" s="266"/>
-      <c r="I54" s="266"/>
-      <c r="J54" s="266"/>
-      <c r="K54" s="266"/>
-      <c r="L54" s="266"/>
-      <c r="M54" s="266"/>
-      <c r="N54" s="267"/>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B47" s="262"/>
+      <c r="C47" s="263"/>
+      <c r="D47" s="263"/>
+      <c r="E47" s="263"/>
+      <c r="F47" s="263"/>
+      <c r="G47" s="263"/>
+      <c r="H47" s="263"/>
+      <c r="I47" s="263"/>
+      <c r="J47" s="263"/>
+      <c r="K47" s="263"/>
+      <c r="L47" s="263"/>
+      <c r="M47" s="263"/>
+      <c r="N47" s="264"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B48" s="262"/>
+      <c r="C48" s="263"/>
+      <c r="D48" s="263"/>
+      <c r="E48" s="263"/>
+      <c r="F48" s="263"/>
+      <c r="G48" s="263"/>
+      <c r="H48" s="263"/>
+      <c r="I48" s="263"/>
+      <c r="J48" s="263"/>
+      <c r="K48" s="263"/>
+      <c r="L48" s="263"/>
+      <c r="M48" s="263"/>
+      <c r="N48" s="264"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="262"/>
+      <c r="C49" s="263"/>
+      <c r="D49" s="263"/>
+      <c r="E49" s="263"/>
+      <c r="F49" s="263"/>
+      <c r="G49" s="263"/>
+      <c r="H49" s="263"/>
+      <c r="I49" s="263"/>
+      <c r="J49" s="263"/>
+      <c r="K49" s="263"/>
+      <c r="L49" s="263"/>
+      <c r="M49" s="263"/>
+      <c r="N49" s="264"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="262"/>
+      <c r="C50" s="263"/>
+      <c r="D50" s="263"/>
+      <c r="E50" s="263"/>
+      <c r="F50" s="263"/>
+      <c r="G50" s="263"/>
+      <c r="H50" s="263"/>
+      <c r="I50" s="263"/>
+      <c r="J50" s="263"/>
+      <c r="K50" s="263"/>
+      <c r="L50" s="263"/>
+      <c r="M50" s="263"/>
+      <c r="N50" s="264"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="262"/>
+      <c r="C51" s="263"/>
+      <c r="D51" s="263"/>
+      <c r="E51" s="263"/>
+      <c r="F51" s="263"/>
+      <c r="G51" s="263"/>
+      <c r="H51" s="263"/>
+      <c r="I51" s="263"/>
+      <c r="J51" s="263"/>
+      <c r="K51" s="263"/>
+      <c r="L51" s="263"/>
+      <c r="M51" s="263"/>
+      <c r="N51" s="264"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="262"/>
+      <c r="C52" s="263"/>
+      <c r="D52" s="263"/>
+      <c r="E52" s="263"/>
+      <c r="F52" s="263"/>
+      <c r="G52" s="263"/>
+      <c r="H52" s="263"/>
+      <c r="I52" s="263"/>
+      <c r="J52" s="263"/>
+      <c r="K52" s="263"/>
+      <c r="L52" s="263"/>
+      <c r="M52" s="263"/>
+      <c r="N52" s="264"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="262"/>
+      <c r="C53" s="263"/>
+      <c r="D53" s="263"/>
+      <c r="E53" s="263"/>
+      <c r="F53" s="263"/>
+      <c r="G53" s="263"/>
+      <c r="H53" s="263"/>
+      <c r="I53" s="263"/>
+      <c r="J53" s="263"/>
+      <c r="K53" s="263"/>
+      <c r="L53" s="263"/>
+      <c r="M53" s="263"/>
+      <c r="N53" s="264"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="262"/>
+      <c r="C54" s="263"/>
+      <c r="D54" s="263"/>
+      <c r="E54" s="263"/>
+      <c r="F54" s="263"/>
+      <c r="G54" s="263"/>
+      <c r="H54" s="263"/>
+      <c r="I54" s="263"/>
+      <c r="J54" s="263"/>
+      <c r="K54" s="263"/>
+      <c r="L54" s="263"/>
+      <c r="M54" s="263"/>
+      <c r="N54" s="264"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="N8:N10"/>
+    <mergeCell ref="B2:C6"/>
+    <mergeCell ref="F2:I6"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="L2:M6"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
     <mergeCell ref="B54:N54"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="B44:C44"/>
@@ -11128,28 +11147,6 @@
     <mergeCell ref="B51:N51"/>
     <mergeCell ref="B52:N52"/>
     <mergeCell ref="B53:N53"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="N8:N10"/>
-    <mergeCell ref="B2:C6"/>
-    <mergeCell ref="F2:I6"/>
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="L2:M6"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
